--- a/datamining/final_data/sum2019.xlsx
+++ b/datamining/final_data/sum2019.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FAS2"/>
+  <dimension ref="A1:FAT2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18467,2470 +18467,2475 @@
       </c>
       <c r="EHT1" s="1" t="inlineStr">
         <is>
+          <t>인공지능</t>
+        </is>
+      </c>
+      <c r="EHU1" s="1" t="inlineStr">
+        <is>
           <t>기준점</t>
         </is>
       </c>
-      <c r="EHU1" s="1" t="inlineStr">
+      <c r="EHV1" s="1" t="inlineStr">
         <is>
           <t>상회</t>
         </is>
       </c>
-      <c r="EHV1" s="1" t="inlineStr">
+      <c r="EHW1" s="1" t="inlineStr">
         <is>
           <t>트렌드</t>
         </is>
       </c>
-      <c r="EHW1" s="1" t="inlineStr">
+      <c r="EHX1" s="1" t="inlineStr">
         <is>
           <t>하회</t>
         </is>
       </c>
-      <c r="EHX1" s="1" t="inlineStr">
+      <c r="EHY1" s="1" t="inlineStr">
         <is>
           <t>합의도</t>
         </is>
       </c>
-      <c r="EHY1" s="1" t="inlineStr">
+      <c r="EHZ1" s="1" t="inlineStr">
         <is>
           <t>합의</t>
         </is>
       </c>
-      <c r="EHZ1" s="1" t="inlineStr">
+      <c r="EIA1" s="1" t="inlineStr">
         <is>
           <t>분석후</t>
         </is>
       </c>
-      <c r="EIA1" s="1" t="inlineStr">
+      <c r="EIB1" s="1" t="inlineStr">
         <is>
           <t>처우</t>
         </is>
       </c>
-      <c r="EIB1" s="1" t="inlineStr">
+      <c r="EIC1" s="1" t="inlineStr">
         <is>
           <t>형태소</t>
         </is>
       </c>
-      <c r="EIC1" s="1" t="inlineStr">
+      <c r="EID1" s="1" t="inlineStr">
         <is>
           <t>인포메이션</t>
         </is>
       </c>
-      <c r="EID1" s="1" t="inlineStr">
+      <c r="EIE1" s="1" t="inlineStr">
         <is>
           <t>박사</t>
         </is>
       </c>
-      <c r="EIE1" s="1" t="inlineStr">
+      <c r="EIF1" s="1" t="inlineStr">
         <is>
           <t>빈도수</t>
         </is>
       </c>
-      <c r="EIF1" s="1" t="inlineStr">
+      <c r="EIG1" s="1" t="inlineStr">
         <is>
           <t>거론</t>
         </is>
       </c>
-      <c r="EIG1" s="1" t="inlineStr">
+      <c r="EIH1" s="1" t="inlineStr">
         <is>
           <t>상정</t>
         </is>
       </c>
-      <c r="EIH1" s="1" t="inlineStr">
+      <c r="EII1" s="1" t="inlineStr">
         <is>
           <t>예측변인</t>
         </is>
       </c>
-      <c r="EII1" s="1" t="inlineStr">
+      <c r="EIJ1" s="1" t="inlineStr">
         <is>
           <t>참가자</t>
         </is>
       </c>
-      <c r="EIJ1" s="1" t="inlineStr">
+      <c r="EIK1" s="1" t="inlineStr">
         <is>
           <t>우수자</t>
         </is>
       </c>
-      <c r="EIK1" s="1" t="inlineStr">
+      <c r="EIL1" s="1" t="inlineStr">
         <is>
           <t>입시</t>
         </is>
       </c>
-      <c r="EIL1" s="1" t="inlineStr">
+      <c r="EIM1" s="1" t="inlineStr">
         <is>
           <t>입학생</t>
         </is>
       </c>
-      <c r="EIM1" s="1" t="inlineStr">
+      <c r="EIN1" s="1" t="inlineStr">
         <is>
           <t>정시</t>
         </is>
       </c>
-      <c r="EIN1" s="1" t="inlineStr">
+      <c r="EIO1" s="1" t="inlineStr">
         <is>
           <t>충성도</t>
         </is>
       </c>
-      <c r="EIO1" s="1" t="inlineStr">
+      <c r="EIP1" s="1" t="inlineStr">
         <is>
           <t>학과</t>
         </is>
       </c>
-      <c r="EIP1" s="1" t="inlineStr">
+      <c r="EIQ1" s="1" t="inlineStr">
         <is>
           <t>서보드</t>
         </is>
       </c>
-      <c r="EIQ1" s="1" t="inlineStr">
+      <c r="EIR1" s="1" t="inlineStr">
         <is>
           <t>완성도</t>
         </is>
       </c>
-      <c r="EIR1" s="1" t="inlineStr">
+      <c r="EIS1" s="1" t="inlineStr">
         <is>
           <t>renzulli</t>
         </is>
       </c>
-      <c r="EIS1" s="1" t="inlineStr">
+      <c r="EIT1" s="1" t="inlineStr">
         <is>
           <t>사안</t>
         </is>
       </c>
-      <c r="EIT1" s="1" t="inlineStr">
+      <c r="EIU1" s="1" t="inlineStr">
         <is>
           <t>줄리</t>
         </is>
       </c>
-      <c r="EIU1" s="1" t="inlineStr">
+      <c r="EIV1" s="1" t="inlineStr">
         <is>
           <t>초등정보</t>
         </is>
       </c>
-      <c r="EIV1" s="1" t="inlineStr">
+      <c r="EIW1" s="1" t="inlineStr">
         <is>
           <t>숙제</t>
         </is>
       </c>
-      <c r="EIW1" s="1" t="inlineStr">
+      <c r="EIX1" s="1" t="inlineStr">
         <is>
           <t>과학쇼</t>
         </is>
       </c>
-      <c r="EIX1" s="1" t="inlineStr">
+      <c r="EIY1" s="1" t="inlineStr">
         <is>
           <t>마술</t>
         </is>
       </c>
-      <c r="EIY1" s="1" t="inlineStr">
+      <c r="EIZ1" s="1" t="inlineStr">
         <is>
           <t>오렌지</t>
         </is>
       </c>
-      <c r="EIZ1" s="1" t="inlineStr">
+      <c r="EJA1" s="1" t="inlineStr">
         <is>
           <t>패리티비트</t>
         </is>
       </c>
-      <c r="EJA1" s="1" t="inlineStr">
+      <c r="EJB1" s="1" t="inlineStr">
         <is>
           <t>자기장</t>
         </is>
       </c>
-      <c r="EJB1" s="1" t="inlineStr">
+      <c r="EJC1" s="1" t="inlineStr">
         <is>
           <t>자석</t>
         </is>
       </c>
-      <c r="EJC1" s="1" t="inlineStr">
+      <c r="EJD1" s="1" t="inlineStr">
         <is>
           <t>멘토</t>
         </is>
       </c>
-      <c r="EJD1" s="1" t="inlineStr">
+      <c r="EJE1" s="1" t="inlineStr">
         <is>
           <t>에듀</t>
         </is>
       </c>
-      <c r="EJE1" s="1" t="inlineStr">
+      <c r="EJF1" s="1" t="inlineStr">
         <is>
           <t>에듀톤</t>
         </is>
       </c>
-      <c r="EJF1" s="1" t="inlineStr">
+      <c r="EJG1" s="1" t="inlineStr">
         <is>
           <t>예선</t>
         </is>
       </c>
-      <c r="EJG1" s="1" t="inlineStr">
+      <c r="EJH1" s="1" t="inlineStr">
         <is>
           <t>일지</t>
         </is>
       </c>
-      <c r="EJH1" s="1" t="inlineStr">
+      <c r="EJI1" s="1" t="inlineStr">
         <is>
           <t>rossett</t>
         </is>
       </c>
-      <c r="EJI1" s="1" t="inlineStr">
+      <c r="EJJ1" s="1" t="inlineStr">
         <is>
           <t>건물</t>
         </is>
       </c>
-      <c r="EJJ1" s="1" t="inlineStr">
+      <c r="EJK1" s="1" t="inlineStr">
         <is>
           <t>공변인</t>
         </is>
       </c>
-      <c r="EJK1" s="1" t="inlineStr">
+      <c r="EJL1" s="1" t="inlineStr">
         <is>
           <t>삼각비</t>
         </is>
       </c>
-      <c r="EJL1" s="1" t="inlineStr">
+      <c r="EJM1" s="1" t="inlineStr">
         <is>
           <t>포트리스</t>
         </is>
       </c>
-      <c r="EJM1" s="1" t="inlineStr">
+      <c r="EJN1" s="1" t="inlineStr">
         <is>
           <t>다집단</t>
         </is>
       </c>
-      <c r="EJN1" s="1" t="inlineStr">
+      <c r="EJO1" s="1" t="inlineStr">
         <is>
           <t>서울교육종단</t>
         </is>
       </c>
-      <c r="EJO1" s="1" t="inlineStr">
+      <c r="EJP1" s="1" t="inlineStr">
         <is>
           <t>여가용</t>
         </is>
       </c>
-      <c r="EJP1" s="1" t="inlineStr">
+      <c r="EJQ1" s="1" t="inlineStr">
         <is>
           <t>자기주도학습</t>
         </is>
       </c>
-      <c r="EJQ1" s="1" t="inlineStr">
+      <c r="EJR1" s="1" t="inlineStr">
         <is>
           <t>종단연구</t>
         </is>
       </c>
-      <c r="EJR1" s="1" t="inlineStr">
+      <c r="EJS1" s="1" t="inlineStr">
         <is>
           <t>차년</t>
         </is>
       </c>
-      <c r="EJS1" s="1" t="inlineStr">
+      <c r="EJT1" s="1" t="inlineStr">
         <is>
           <t>dependencies</t>
         </is>
       </c>
-      <c r="EJT1" s="1" t="inlineStr">
+      <c r="EJU1" s="1" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="EJU1" s="1" t="inlineStr">
+      <c r="EJV1" s="1" t="inlineStr">
         <is>
           <t>network</t>
         </is>
       </c>
-      <c r="EJV1" s="1" t="inlineStr">
+      <c r="EJW1" s="1" t="inlineStr">
         <is>
           <t>neural</t>
         </is>
       </c>
-      <c r="EJW1" s="1" t="inlineStr">
+      <c r="EJX1" s="1" t="inlineStr">
         <is>
           <t>rare</t>
         </is>
       </c>
-      <c r="EJX1" s="1" t="inlineStr">
+      <c r="EJY1" s="1" t="inlineStr">
         <is>
           <t>recurrent</t>
         </is>
       </c>
-      <c r="EJY1" s="1" t="inlineStr">
+      <c r="EJZ1" s="1" t="inlineStr">
         <is>
           <t>subword</t>
         </is>
       </c>
-      <c r="EJZ1" s="1" t="inlineStr">
+      <c r="EKA1" s="1" t="inlineStr">
         <is>
           <t>term</t>
         </is>
       </c>
-      <c r="EKA1" s="1" t="inlineStr">
+      <c r="EKB1" s="1" t="inlineStr">
         <is>
           <t>검사기</t>
         </is>
       </c>
-      <c r="EKB1" s="1" t="inlineStr">
+      <c r="EKC1" s="1" t="inlineStr">
         <is>
           <t>단일어</t>
         </is>
       </c>
-      <c r="EKC1" s="1" t="inlineStr">
+      <c r="EKD1" s="1" t="inlineStr">
         <is>
           <t>맞춤법</t>
         </is>
       </c>
-      <c r="EKD1" s="1" t="inlineStr">
+      <c r="EKE1" s="1" t="inlineStr">
         <is>
           <t>코퍼스</t>
         </is>
       </c>
-      <c r="EKE1" s="1" t="inlineStr">
+      <c r="EKF1" s="1" t="inlineStr">
         <is>
           <t>희소</t>
         </is>
       </c>
-      <c r="EKF1" s="1" t="inlineStr">
+      <c r="EKG1" s="1" t="inlineStr">
         <is>
           <t>브랜드</t>
         </is>
       </c>
-      <c r="EKG1" s="1" t="inlineStr">
+      <c r="EKH1" s="1" t="inlineStr">
         <is>
           <t>자국</t>
         </is>
       </c>
-      <c r="EKH1" s="1" t="inlineStr">
+      <c r="EKI1" s="1" t="inlineStr">
         <is>
           <t>장학사</t>
         </is>
       </c>
-      <c r="EKI1" s="1" t="inlineStr">
+      <c r="EKJ1" s="1" t="inlineStr">
         <is>
           <t>주년</t>
         </is>
       </c>
-      <c r="EKJ1" s="1" t="inlineStr">
+      <c r="EKK1" s="1" t="inlineStr">
         <is>
           <t>주무관</t>
         </is>
       </c>
-      <c r="EKK1" s="1" t="inlineStr">
+      <c r="EKL1" s="1" t="inlineStr">
         <is>
           <t>초청</t>
         </is>
       </c>
-      <c r="EKL1" s="1" t="inlineStr">
+      <c r="EKM1" s="1" t="inlineStr">
         <is>
           <t>협력국</t>
         </is>
       </c>
-      <c r="EKM1" s="1" t="inlineStr">
+      <c r="EKN1" s="1" t="inlineStr">
         <is>
           <t>개국</t>
         </is>
       </c>
-      <c r="EKN1" s="1" t="inlineStr">
+      <c r="EKO1" s="1" t="inlineStr">
         <is>
           <t>선형</t>
         </is>
       </c>
-      <c r="EKO1" s="1" t="inlineStr">
+      <c r="EKP1" s="1" t="inlineStr">
         <is>
           <t>소용돌이</t>
         </is>
       </c>
-      <c r="EKP1" s="1" t="inlineStr">
+      <c r="EKQ1" s="1" t="inlineStr">
         <is>
           <t>예외</t>
         </is>
       </c>
-      <c r="EKQ1" s="1" t="inlineStr">
+      <c r="EKR1" s="1" t="inlineStr">
         <is>
           <t>주역</t>
         </is>
       </c>
-      <c r="EKR1" s="1" t="inlineStr">
+      <c r="EKS1" s="1" t="inlineStr">
         <is>
           <t>torrance</t>
         </is>
       </c>
-      <c r="EKS1" s="1" t="inlineStr">
+      <c r="EKT1" s="1" t="inlineStr">
         <is>
           <t>제주</t>
         </is>
       </c>
-      <c r="EKT1" s="1" t="inlineStr">
+      <c r="EKU1" s="1" t="inlineStr">
         <is>
           <t>컴퓨터교육</t>
         </is>
       </c>
-      <c r="EKU1" s="1" t="inlineStr">
+      <c r="EKV1" s="1" t="inlineStr">
         <is>
           <t>다년</t>
         </is>
       </c>
-      <c r="EKV1" s="1" t="inlineStr">
+      <c r="EKW1" s="1" t="inlineStr">
         <is>
           <t>디자</t>
         </is>
       </c>
-      <c r="EKW1" s="1" t="inlineStr">
+      <c r="EKX1" s="1" t="inlineStr">
         <is>
           <t>발상</t>
         </is>
       </c>
-      <c r="EKX1" s="1" t="inlineStr">
+      <c r="EKY1" s="1" t="inlineStr">
         <is>
           <t>코스</t>
         </is>
       </c>
-      <c r="EKY1" s="1" t="inlineStr">
+      <c r="EKZ1" s="1" t="inlineStr">
         <is>
           <t>사물인터넷</t>
         </is>
       </c>
-      <c r="EKZ1" s="1" t="inlineStr">
+      <c r="ELA1" s="1" t="inlineStr">
         <is>
           <t>윷놀이</t>
         </is>
       </c>
-      <c r="ELA1" s="1" t="inlineStr">
+      <c r="ELB1" s="1" t="inlineStr">
         <is>
           <t>획기적</t>
         </is>
       </c>
-      <c r="ELB1" s="1" t="inlineStr">
+      <c r="ELC1" s="1" t="inlineStr">
         <is>
           <t>중다회</t>
         </is>
       </c>
-      <c r="ELC1" s="1" t="inlineStr">
+      <c r="ELD1" s="1" t="inlineStr">
         <is>
           <t>tests</t>
         </is>
       </c>
-      <c r="ELD1" s="1" t="inlineStr">
+      <c r="ELE1" s="1" t="inlineStr">
         <is>
           <t>경제혁신센터</t>
         </is>
       </c>
-      <c r="ELE1" s="1" t="inlineStr">
+      <c r="ELF1" s="1" t="inlineStr">
         <is>
           <t>청년</t>
         </is>
       </c>
-      <c r="ELF1" s="1" t="inlineStr">
+      <c r="ELG1" s="1" t="inlineStr">
         <is>
           <t>관통</t>
         </is>
       </c>
-      <c r="ELG1" s="1" t="inlineStr">
+      <c r="ELH1" s="1" t="inlineStr">
         <is>
           <t>재정의</t>
         </is>
       </c>
-      <c r="ELH1" s="1" t="inlineStr">
+      <c r="ELI1" s="1" t="inlineStr">
         <is>
           <t>합성식</t>
         </is>
       </c>
-      <c r="ELI1" s="1" t="inlineStr">
+      <c r="ELJ1" s="1" t="inlineStr">
         <is>
           <t>공분산</t>
         </is>
       </c>
-      <c r="ELJ1" s="1" t="inlineStr">
+      <c r="ELK1" s="1" t="inlineStr">
         <is>
           <t>햄스터</t>
         </is>
       </c>
-      <c r="ELK1" s="1" t="inlineStr">
+      <c r="ELL1" s="1" t="inlineStr">
         <is>
           <t>미침</t>
         </is>
       </c>
-      <c r="ELL1" s="1" t="inlineStr">
+      <c r="ELM1" s="1" t="inlineStr">
         <is>
           <t>cad</t>
         </is>
       </c>
-      <c r="ELM1" s="1" t="inlineStr">
+      <c r="ELN1" s="1" t="inlineStr">
         <is>
           <t>거시</t>
         </is>
       </c>
-      <c r="ELN1" s="1" t="inlineStr">
+      <c r="ELO1" s="1" t="inlineStr">
         <is>
           <t>메이커</t>
         </is>
       </c>
-      <c r="ELO1" s="1" t="inlineStr">
+      <c r="ELP1" s="1" t="inlineStr">
         <is>
           <t>부피</t>
         </is>
       </c>
-      <c r="ELP1" s="1" t="inlineStr">
+      <c r="ELQ1" s="1" t="inlineStr">
         <is>
           <t>스페이스</t>
         </is>
       </c>
-      <c r="ELQ1" s="1" t="inlineStr">
+      <c r="ELR1" s="1" t="inlineStr">
         <is>
           <t>연계주의</t>
         </is>
       </c>
-      <c r="ELR1" s="1" t="inlineStr">
+      <c r="ELS1" s="1" t="inlineStr">
         <is>
           <t>재현</t>
         </is>
       </c>
-      <c r="ELS1" s="1" t="inlineStr">
+      <c r="ELT1" s="1" t="inlineStr">
         <is>
           <t>증명</t>
         </is>
       </c>
-      <c r="ELT1" s="1" t="inlineStr">
+      <c r="ELU1" s="1" t="inlineStr">
         <is>
           <t>학습내용</t>
         </is>
       </c>
-      <c r="ELU1" s="1" t="inlineStr">
+      <c r="ELV1" s="1" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
       </c>
-      <c r="ELV1" s="1" t="inlineStr">
+      <c r="ELW1" s="1" t="inlineStr">
         <is>
           <t>hlm</t>
         </is>
       </c>
-      <c r="ELW1" s="1" t="inlineStr">
+      <c r="ELX1" s="1" t="inlineStr">
         <is>
           <t>international</t>
         </is>
       </c>
-      <c r="ELX1" s="1" t="inlineStr">
+      <c r="ELY1" s="1" t="inlineStr">
         <is>
           <t>programme</t>
         </is>
       </c>
-      <c r="ELY1" s="1" t="inlineStr">
+      <c r="ELZ1" s="1" t="inlineStr">
         <is>
           <t>student</t>
         </is>
       </c>
-      <c r="ELZ1" s="1" t="inlineStr">
+      <c r="EMA1" s="1" t="inlineStr">
         <is>
           <t>다층</t>
         </is>
       </c>
-      <c r="EMA1" s="1" t="inlineStr">
+      <c r="EMB1" s="1" t="inlineStr">
         <is>
           <t>선형모</t>
         </is>
       </c>
-      <c r="EMB1" s="1" t="inlineStr">
+      <c r="EMC1" s="1" t="inlineStr">
         <is>
           <t>그전</t>
         </is>
       </c>
-      <c r="EMC1" s="1" t="inlineStr">
+      <c r="EMD1" s="1" t="inlineStr">
         <is>
           <t>자의식</t>
         </is>
       </c>
-      <c r="EMD1" s="1" t="inlineStr">
+      <c r="EME1" s="1" t="inlineStr">
         <is>
           <t>딥러닝</t>
         </is>
       </c>
-      <c r="EME1" s="1" t="inlineStr">
+      <c r="EMF1" s="1" t="inlineStr">
         <is>
           <t>학습흥미</t>
         </is>
       </c>
-      <c r="EMF1" s="1" t="inlineStr">
+      <c r="EMG1" s="1" t="inlineStr">
         <is>
           <t>인지력</t>
         </is>
       </c>
-      <c r="EMG1" s="1" t="inlineStr">
+      <c r="EMH1" s="1" t="inlineStr">
         <is>
           <t>현시대</t>
         </is>
       </c>
-      <c r="EMH1" s="1" t="inlineStr">
+      <c r="EMI1" s="1" t="inlineStr">
         <is>
           <t>소득계층</t>
         </is>
       </c>
-      <c r="EMI1" s="1" t="inlineStr">
+      <c r="EMJ1" s="1" t="inlineStr">
         <is>
           <t>읍면</t>
         </is>
       </c>
-      <c r="EMJ1" s="1" t="inlineStr">
+      <c r="EMK1" s="1" t="inlineStr">
         <is>
           <t>coding</t>
         </is>
       </c>
-      <c r="EMK1" s="1" t="inlineStr">
+      <c r="EML1" s="1" t="inlineStr">
         <is>
           <t>history</t>
         </is>
       </c>
-      <c r="EML1" s="1" t="inlineStr">
+      <c r="EMM1" s="1" t="inlineStr">
         <is>
           <t>hvc</t>
         </is>
       </c>
-      <c r="EMM1" s="1" t="inlineStr">
+      <c r="EMN1" s="1" t="inlineStr">
         <is>
           <t>vr</t>
         </is>
       </c>
-      <c r="EMN1" s="1" t="inlineStr">
+      <c r="EMO1" s="1" t="inlineStr">
         <is>
           <t>성숙도</t>
         </is>
       </c>
-      <c r="EMO1" s="1" t="inlineStr">
+      <c r="EMP1" s="1" t="inlineStr">
         <is>
           <t>저해</t>
         </is>
       </c>
-      <c r="EMP1" s="1" t="inlineStr">
+      <c r="EMQ1" s="1" t="inlineStr">
         <is>
           <t>촉진요인</t>
         </is>
       </c>
-      <c r="EMQ1" s="1" t="inlineStr">
+      <c r="EMR1" s="1" t="inlineStr">
         <is>
           <t>객체지향</t>
         </is>
       </c>
-      <c r="EMR1" s="1" t="inlineStr">
+      <c r="EMS1" s="1" t="inlineStr">
         <is>
           <t>교과과정</t>
         </is>
       </c>
-      <c r="EMS1" s="1" t="inlineStr">
+      <c r="EMT1" s="1" t="inlineStr">
         <is>
           <t>기억</t>
         </is>
       </c>
-      <c r="EMT1" s="1" t="inlineStr">
+      <c r="EMU1" s="1" t="inlineStr">
         <is>
           <t>편입</t>
         </is>
       </c>
-      <c r="EMU1" s="1" t="inlineStr">
+      <c r="EMV1" s="1" t="inlineStr">
         <is>
           <t>교훈</t>
         </is>
       </c>
-      <c r="EMV1" s="1" t="inlineStr">
+      <c r="EMW1" s="1" t="inlineStr">
         <is>
           <t>검사결과</t>
         </is>
       </c>
-      <c r="EMW1" s="1" t="inlineStr">
+      <c r="EMX1" s="1" t="inlineStr">
         <is>
           <t>우려성</t>
         </is>
       </c>
-      <c r="EMX1" s="1" t="inlineStr">
+      <c r="EMY1" s="1" t="inlineStr">
         <is>
           <t>교과내용</t>
         </is>
       </c>
-      <c r="EMY1" s="1" t="inlineStr">
+      <c r="EMZ1" s="1" t="inlineStr">
         <is>
           <t>영어교</t>
         </is>
       </c>
-      <c r="EMZ1" s="1" t="inlineStr">
+      <c r="ENA1" s="1" t="inlineStr">
         <is>
           <t>유사점</t>
         </is>
       </c>
-      <c r="ENA1" s="1" t="inlineStr">
+      <c r="ENB1" s="1" t="inlineStr">
         <is>
           <t>포용</t>
         </is>
       </c>
-      <c r="ENB1" s="1" t="inlineStr">
+      <c r="ENC1" s="1" t="inlineStr">
         <is>
           <t>kaie</t>
         </is>
       </c>
-      <c r="ENC1" s="1" t="inlineStr">
+      <c r="END1" s="1" t="inlineStr">
         <is>
           <t>예절</t>
         </is>
       </c>
-      <c r="END1" s="1" t="inlineStr">
+      <c r="ENE1" s="1" t="inlineStr">
         <is>
           <t>차기</t>
         </is>
       </c>
-      <c r="ENE1" s="1" t="inlineStr">
+      <c r="ENF1" s="1" t="inlineStr">
         <is>
           <t>시간이상</t>
         </is>
       </c>
-      <c r="ENF1" s="1" t="inlineStr">
+      <c r="ENG1" s="1" t="inlineStr">
         <is>
           <t>계획서</t>
         </is>
       </c>
-      <c r="ENG1" s="1" t="inlineStr">
+      <c r="ENH1" s="1" t="inlineStr">
         <is>
           <t>구조화</t>
         </is>
       </c>
-      <c r="ENH1" s="1" t="inlineStr">
+      <c r="ENI1" s="1" t="inlineStr">
         <is>
           <t>학점</t>
         </is>
       </c>
-      <c r="ENI1" s="1" t="inlineStr">
+      <c r="ENJ1" s="1" t="inlineStr">
         <is>
           <t>nielsen</t>
         </is>
       </c>
-      <c r="ENJ1" s="1" t="inlineStr">
+      <c r="ENK1" s="1" t="inlineStr">
         <is>
           <t>관계자</t>
         </is>
       </c>
-      <c r="ENK1" s="1" t="inlineStr">
+      <c r="ENL1" s="1" t="inlineStr">
         <is>
           <t>중생</t>
         </is>
       </c>
-      <c r="ENL1" s="1" t="inlineStr">
+      <c r="ENM1" s="1" t="inlineStr">
         <is>
           <t>증거</t>
         </is>
       </c>
-      <c r="ENM1" s="1" t="inlineStr">
+      <c r="ENN1" s="1" t="inlineStr">
         <is>
           <t>진단평가</t>
         </is>
       </c>
-      <c r="ENN1" s="1" t="inlineStr">
+      <c r="ENO1" s="1" t="inlineStr">
         <is>
           <t>평가시스템</t>
         </is>
       </c>
-      <c r="ENO1" s="1" t="inlineStr">
+      <c r="ENP1" s="1" t="inlineStr">
         <is>
           <t>휴리스틱스</t>
         </is>
       </c>
-      <c r="ENP1" s="1" t="inlineStr">
+      <c r="ENQ1" s="1" t="inlineStr">
         <is>
           <t>해결수월</t>
         </is>
       </c>
-      <c r="ENQ1" s="1" t="inlineStr">
+      <c r="ENR1" s="1" t="inlineStr">
         <is>
           <t>기획서</t>
         </is>
       </c>
-      <c r="ENR1" s="1" t="inlineStr">
+      <c r="ENS1" s="1" t="inlineStr">
         <is>
           <t>성찰지</t>
         </is>
       </c>
-      <c r="ENS1" s="1" t="inlineStr">
+      <c r="ENT1" s="1" t="inlineStr">
         <is>
           <t>테이블</t>
         </is>
       </c>
-      <c r="ENT1" s="1" t="inlineStr">
+      <c r="ENU1" s="1" t="inlineStr">
         <is>
           <t>팀간</t>
         </is>
       </c>
-      <c r="ENU1" s="1" t="inlineStr">
+      <c r="ENV1" s="1" t="inlineStr">
         <is>
           <t>프로슈머</t>
         </is>
       </c>
-      <c r="ENV1" s="1" t="inlineStr">
+      <c r="ENW1" s="1" t="inlineStr">
         <is>
           <t>dr</t>
         </is>
       </c>
-      <c r="ENW1" s="1" t="inlineStr">
+      <c r="ENX1" s="1" t="inlineStr">
         <is>
           <t>비버챌린지</t>
         </is>
       </c>
-      <c r="ENX1" s="1" t="inlineStr">
+      <c r="ENY1" s="1" t="inlineStr">
         <is>
           <t>전공자</t>
         </is>
       </c>
-      <c r="ENY1" s="1" t="inlineStr">
+      <c r="ENZ1" s="1" t="inlineStr">
         <is>
           <t>최적화</t>
         </is>
       </c>
-      <c r="ENZ1" s="1" t="inlineStr">
+      <c r="EOA1" s="1" t="inlineStr">
         <is>
           <t>카운팅</t>
         </is>
       </c>
-      <c r="EOA1" s="1" t="inlineStr">
+      <c r="EOB1" s="1" t="inlineStr">
         <is>
           <t>파워</t>
         </is>
       </c>
-      <c r="EOB1" s="1" t="inlineStr">
+      <c r="EOC1" s="1" t="inlineStr">
         <is>
           <t>ddd</t>
         </is>
       </c>
-      <c r="EOC1" s="1" t="inlineStr">
+      <c r="EOD1" s="1" t="inlineStr">
         <is>
           <t>development</t>
         </is>
       </c>
-      <c r="EOD1" s="1" t="inlineStr">
+      <c r="EOE1" s="1" t="inlineStr">
         <is>
           <t>discovery</t>
         </is>
       </c>
-      <c r="EOE1" s="1" t="inlineStr">
+      <c r="EOF1" s="1" t="inlineStr">
         <is>
           <t>동작인식</t>
         </is>
       </c>
-      <c r="EOF1" s="1" t="inlineStr">
+      <c r="EOG1" s="1" t="inlineStr">
         <is>
           <t>도입부</t>
         </is>
       </c>
-      <c r="EOG1" s="1" t="inlineStr">
+      <c r="EOH1" s="1" t="inlineStr">
         <is>
           <t>해밍</t>
         </is>
       </c>
-      <c r="EOH1" s="1" t="inlineStr">
+      <c r="EOI1" s="1" t="inlineStr">
         <is>
           <t>humhub</t>
         </is>
       </c>
-      <c r="EOI1" s="1" t="inlineStr">
+      <c r="EOJ1" s="1" t="inlineStr">
         <is>
           <t>심체</t>
         </is>
       </c>
-      <c r="EOJ1" s="1" t="inlineStr">
+      <c r="EOK1" s="1" t="inlineStr">
         <is>
           <t>여성교사</t>
         </is>
       </c>
-      <c r="EOK1" s="1" t="inlineStr">
+      <c r="EOL1" s="1" t="inlineStr">
         <is>
           <t>놀이터</t>
         </is>
       </c>
-      <c r="EOL1" s="1" t="inlineStr">
+      <c r="EOM1" s="1" t="inlineStr">
         <is>
           <t>동센터</t>
         </is>
       </c>
-      <c r="EOM1" s="1" t="inlineStr">
+      <c r="EON1" s="1" t="inlineStr">
         <is>
           <t>가족</t>
         </is>
       </c>
-      <c r="EON1" s="1" t="inlineStr">
+      <c r="EOO1" s="1" t="inlineStr">
         <is>
           <t>관계망</t>
         </is>
       </c>
-      <c r="EOO1" s="1" t="inlineStr">
+      <c r="EOP1" s="1" t="inlineStr">
         <is>
           <t>친밀도</t>
         </is>
       </c>
-      <c r="EOP1" s="1" t="inlineStr">
+      <c r="EOQ1" s="1" t="inlineStr">
         <is>
           <t>친척</t>
         </is>
       </c>
-      <c r="EOQ1" s="1" t="inlineStr">
+      <c r="EOR1" s="1" t="inlineStr">
         <is>
           <t>혈연</t>
         </is>
       </c>
-      <c r="EOR1" s="1" t="inlineStr">
+      <c r="EOS1" s="1" t="inlineStr">
         <is>
           <t>혼자</t>
         </is>
       </c>
-      <c r="EOS1" s="1" t="inlineStr">
+      <c r="EOT1" s="1" t="inlineStr">
         <is>
           <t>riss</t>
         </is>
       </c>
-      <c r="EOT1" s="1" t="inlineStr">
+      <c r="EOU1" s="1" t="inlineStr">
         <is>
           <t>기각</t>
         </is>
       </c>
-      <c r="EOU1" s="1" t="inlineStr">
+      <c r="EOV1" s="1" t="inlineStr">
         <is>
           <t>지속의도</t>
         </is>
       </c>
-      <c r="EOV1" s="1" t="inlineStr">
+      <c r="EOW1" s="1" t="inlineStr">
         <is>
           <t>배정</t>
         </is>
       </c>
-      <c r="EOW1" s="1" t="inlineStr">
+      <c r="EOX1" s="1" t="inlineStr">
         <is>
           <t>전공계열</t>
         </is>
       </c>
-      <c r="EOX1" s="1" t="inlineStr">
+      <c r="EOY1" s="1" t="inlineStr">
         <is>
           <t>개년</t>
         </is>
       </c>
-      <c r="EOY1" s="1" t="inlineStr">
+      <c r="EOZ1" s="1" t="inlineStr">
         <is>
           <t>물적</t>
         </is>
       </c>
-      <c r="EOZ1" s="1" t="inlineStr">
+      <c r="EPA1" s="1" t="inlineStr">
         <is>
           <t>소지자</t>
         </is>
       </c>
-      <c r="EPA1" s="1" t="inlineStr">
+      <c r="EPB1" s="1" t="inlineStr">
         <is>
           <t>역설</t>
         </is>
       </c>
-      <c r="EPB1" s="1" t="inlineStr">
+      <c r="EPC1" s="1" t="inlineStr">
         <is>
           <t>운영비</t>
         </is>
       </c>
-      <c r="EPC1" s="1" t="inlineStr">
+      <c r="EPD1" s="1" t="inlineStr">
         <is>
           <t>총액</t>
         </is>
       </c>
-      <c r="EPD1" s="1" t="inlineStr">
+      <c r="EPE1" s="1" t="inlineStr">
         <is>
           <t>추이</t>
         </is>
       </c>
-      <c r="EPE1" s="1" t="inlineStr">
+      <c r="EPF1" s="1" t="inlineStr">
         <is>
           <t>타교과</t>
         </is>
       </c>
-      <c r="EPF1" s="1" t="inlineStr">
+      <c r="EPG1" s="1" t="inlineStr">
         <is>
           <t>필수화</t>
         </is>
       </c>
-      <c r="EPG1" s="1" t="inlineStr">
+      <c r="EPH1" s="1" t="inlineStr">
         <is>
           <t>명목</t>
         </is>
       </c>
-      <c r="EPH1" s="1" t="inlineStr">
+      <c r="EPI1" s="1" t="inlineStr">
         <is>
           <t>연구소</t>
         </is>
       </c>
-      <c r="EPI1" s="1" t="inlineStr">
+      <c r="EPJ1" s="1" t="inlineStr">
         <is>
           <t>입각</t>
         </is>
       </c>
-      <c r="EPJ1" s="1" t="inlineStr">
+      <c r="EPK1" s="1" t="inlineStr">
         <is>
           <t>테크닉</t>
         </is>
       </c>
-      <c r="EPK1" s="1" t="inlineStr">
+      <c r="EPL1" s="1" t="inlineStr">
         <is>
           <t>cvr</t>
         </is>
       </c>
-      <c r="EPL1" s="1" t="inlineStr">
+      <c r="EPM1" s="1" t="inlineStr">
         <is>
           <t>python</t>
         </is>
       </c>
-      <c r="EPM1" s="1" t="inlineStr">
+      <c r="EPN1" s="1" t="inlineStr">
         <is>
           <t>지도자</t>
         </is>
       </c>
-      <c r="EPN1" s="1" t="inlineStr">
+      <c r="EPO1" s="1" t="inlineStr">
         <is>
           <t>블록리</t>
         </is>
       </c>
-      <c r="EPO1" s="1" t="inlineStr">
+      <c r="EPP1" s="1" t="inlineStr">
         <is>
           <t>조사지</t>
         </is>
       </c>
-      <c r="EPP1" s="1" t="inlineStr">
+      <c r="EPQ1" s="1" t="inlineStr">
         <is>
           <t>코스페이시스</t>
         </is>
       </c>
-      <c r="EPQ1" s="1" t="inlineStr">
+      <c r="EPR1" s="1" t="inlineStr">
         <is>
           <t>디지털도구</t>
         </is>
       </c>
-      <c r="EPR1" s="1" t="inlineStr">
+      <c r="EPS1" s="1" t="inlineStr">
         <is>
           <t>디지털역량</t>
         </is>
       </c>
-      <c r="EPS1" s="1" t="inlineStr">
+      <c r="EPT1" s="1" t="inlineStr">
         <is>
           <t>디지털역량내용교수</t>
         </is>
       </c>
-      <c r="EPT1" s="1" t="inlineStr">
+      <c r="EPU1" s="1" t="inlineStr">
         <is>
           <t>디지털역량내용교수지식</t>
         </is>
       </c>
-      <c r="EPU1" s="1" t="inlineStr">
+      <c r="EPV1" s="1" t="inlineStr">
         <is>
           <t>인재상</t>
         </is>
       </c>
-      <c r="EPV1" s="1" t="inlineStr">
+      <c r="EPW1" s="1" t="inlineStr">
         <is>
           <t>마이</t>
         </is>
       </c>
-      <c r="EPW1" s="1" t="inlineStr">
+      <c r="EPX1" s="1" t="inlineStr">
         <is>
           <t>마이크</t>
         </is>
       </c>
-      <c r="EPX1" s="1" t="inlineStr">
+      <c r="EPY1" s="1" t="inlineStr">
         <is>
           <t>마이크로비트</t>
         </is>
       </c>
-      <c r="EPY1" s="1" t="inlineStr">
+      <c r="EPZ1" s="1" t="inlineStr">
         <is>
           <t>비트</t>
         </is>
       </c>
-      <c r="EPZ1" s="1" t="inlineStr">
+      <c r="EQA1" s="1" t="inlineStr">
         <is>
           <t>씽킹</t>
         </is>
       </c>
-      <c r="EQA1" s="1" t="inlineStr">
+      <c r="EQB1" s="1" t="inlineStr">
         <is>
           <t>diy</t>
         </is>
       </c>
-      <c r="EQB1" s="1" t="inlineStr">
+      <c r="EQC1" s="1" t="inlineStr">
         <is>
           <t>구성방안</t>
         </is>
       </c>
-      <c r="EQC1" s="1" t="inlineStr">
+      <c r="EQD1" s="1" t="inlineStr">
         <is>
           <t>메이킹</t>
         </is>
       </c>
-      <c r="EQD1" s="1" t="inlineStr">
+      <c r="EQE1" s="1" t="inlineStr">
         <is>
           <t>cs</t>
         </is>
       </c>
-      <c r="EQE1" s="1" t="inlineStr">
+      <c r="EQF1" s="1" t="inlineStr">
         <is>
           <t>최고</t>
         </is>
       </c>
-      <c r="EQF1" s="1" t="inlineStr">
+      <c r="EQG1" s="1" t="inlineStr">
         <is>
           <t>mdiap</t>
         </is>
       </c>
-      <c r="EQG1" s="1" t="inlineStr">
+      <c r="EQH1" s="1" t="inlineStr">
         <is>
           <t>나선형</t>
         </is>
       </c>
-      <c r="EQH1" s="1" t="inlineStr">
+      <c r="EQI1" s="1" t="inlineStr">
         <is>
           <t>동시다발</t>
         </is>
       </c>
-      <c r="EQI1" s="1" t="inlineStr">
+      <c r="EQJ1" s="1" t="inlineStr">
         <is>
           <t>일련</t>
         </is>
       </c>
-      <c r="EQJ1" s="1" t="inlineStr">
+      <c r="EQK1" s="1" t="inlineStr">
         <is>
           <t>배틀</t>
         </is>
       </c>
-      <c r="EQK1" s="1" t="inlineStr">
+      <c r="EQL1" s="1" t="inlineStr">
         <is>
           <t>불럭</t>
         </is>
       </c>
-      <c r="EQL1" s="1" t="inlineStr">
+      <c r="EQM1" s="1" t="inlineStr">
         <is>
           <t>요목</t>
         </is>
       </c>
-      <c r="EQM1" s="1" t="inlineStr">
+      <c r="EQN1" s="1" t="inlineStr">
         <is>
           <t>영유아</t>
         </is>
       </c>
-      <c r="EQN1" s="1" t="inlineStr">
+      <c r="EQO1" s="1" t="inlineStr">
         <is>
           <t>인문</t>
         </is>
       </c>
-      <c r="EQO1" s="1" t="inlineStr">
+      <c r="EQP1" s="1" t="inlineStr">
         <is>
           <t>저조</t>
         </is>
       </c>
-      <c r="EQP1" s="1" t="inlineStr">
+      <c r="EQQ1" s="1" t="inlineStr">
         <is>
           <t>고전</t>
         </is>
       </c>
-      <c r="EQQ1" s="1" t="inlineStr">
+      <c r="EQR1" s="1" t="inlineStr">
         <is>
           <t>기하판</t>
         </is>
       </c>
-      <c r="EQR1" s="1" t="inlineStr">
+      <c r="EQS1" s="1" t="inlineStr">
         <is>
           <t>wing</t>
         </is>
       </c>
-      <c r="EQS1" s="1" t="inlineStr">
+      <c r="EQT1" s="1" t="inlineStr">
         <is>
           <t>합격자</t>
         </is>
       </c>
-      <c r="EQT1" s="1" t="inlineStr">
+      <c r="EQU1" s="1" t="inlineStr">
         <is>
           <t>블록형</t>
         </is>
       </c>
-      <c r="EQU1" s="1" t="inlineStr">
+      <c r="EQV1" s="1" t="inlineStr">
         <is>
           <t>파이썬</t>
         </is>
       </c>
-      <c r="EQV1" s="1" t="inlineStr">
+      <c r="EQW1" s="1" t="inlineStr">
         <is>
           <t>챌린</t>
         </is>
       </c>
-      <c r="EQW1" s="1" t="inlineStr">
+      <c r="EQX1" s="1" t="inlineStr">
         <is>
           <t>ai</t>
         </is>
       </c>
-      <c r="EQX1" s="1" t="inlineStr">
+      <c r="EQY1" s="1" t="inlineStr">
         <is>
           <t>선도학교</t>
         </is>
       </c>
-      <c r="EQY1" s="1" t="inlineStr">
+      <c r="EQZ1" s="1" t="inlineStr">
         <is>
           <t>성중심</t>
         </is>
       </c>
-      <c r="EQZ1" s="1" t="inlineStr">
+      <c r="ERA1" s="1" t="inlineStr">
         <is>
           <t>수련관</t>
         </is>
       </c>
-      <c r="ERA1" s="1" t="inlineStr">
+      <c r="ERB1" s="1" t="inlineStr">
         <is>
           <t>선형순차</t>
         </is>
       </c>
-      <c r="ERB1" s="1" t="inlineStr">
+      <c r="ERC1" s="1" t="inlineStr">
         <is>
           <t>자유도</t>
         </is>
       </c>
-      <c r="ERC1" s="1" t="inlineStr">
+      <c r="ERD1" s="1" t="inlineStr">
         <is>
           <t>테크</t>
         </is>
       </c>
-      <c r="ERD1" s="1" t="inlineStr">
+      <c r="ERE1" s="1" t="inlineStr">
         <is>
           <t>서류</t>
         </is>
       </c>
-      <c r="ERE1" s="1" t="inlineStr">
+      <c r="ERF1" s="1" t="inlineStr">
         <is>
           <t>초등융합</t>
         </is>
       </c>
-      <c r="ERF1" s="1" t="inlineStr">
+      <c r="ERG1" s="1" t="inlineStr">
         <is>
           <t>icils</t>
         </is>
       </c>
-      <c r="ERG1" s="1" t="inlineStr">
+      <c r="ERH1" s="1" t="inlineStr">
         <is>
           <t>위원</t>
         </is>
       </c>
-      <c r="ERH1" s="1" t="inlineStr">
+      <c r="ERI1" s="1" t="inlineStr">
         <is>
           <t>책자</t>
         </is>
       </c>
-      <c r="ERI1" s="1" t="inlineStr">
+      <c r="ERJ1" s="1" t="inlineStr">
         <is>
           <t>hierarchical</t>
         </is>
       </c>
-      <c r="ERJ1" s="1" t="inlineStr">
+      <c r="ERK1" s="1" t="inlineStr">
         <is>
           <t>level</t>
         </is>
       </c>
-      <c r="ERK1" s="1" t="inlineStr">
+      <c r="ERL1" s="1" t="inlineStr">
         <is>
           <t>linear</t>
         </is>
       </c>
-      <c r="ERL1" s="1" t="inlineStr">
+      <c r="ERM1" s="1" t="inlineStr">
         <is>
           <t>two</t>
         </is>
       </c>
-      <c r="ERM1" s="1" t="inlineStr">
+      <c r="ERN1" s="1" t="inlineStr">
         <is>
           <t>공평함</t>
         </is>
       </c>
-      <c r="ERN1" s="1" t="inlineStr">
+      <c r="ERO1" s="1" t="inlineStr">
         <is>
           <t>오락</t>
         </is>
       </c>
-      <c r="ERO1" s="1" t="inlineStr">
+      <c r="ERP1" s="1" t="inlineStr">
         <is>
           <t>이벤트</t>
         </is>
       </c>
-      <c r="ERP1" s="1" t="inlineStr">
+      <c r="ERQ1" s="1" t="inlineStr">
         <is>
           <t>공업</t>
         </is>
       </c>
-      <c r="ERQ1" s="1" t="inlineStr">
+      <c r="ERR1" s="1" t="inlineStr">
         <is>
           <t>내외향</t>
         </is>
       </c>
-      <c r="ERR1" s="1" t="inlineStr">
+      <c r="ERS1" s="1" t="inlineStr">
         <is>
           <t>신청학생</t>
         </is>
       </c>
-      <c r="ERS1" s="1" t="inlineStr">
+      <c r="ERT1" s="1" t="inlineStr">
         <is>
           <t>진단지</t>
         </is>
       </c>
-      <c r="ERT1" s="1" t="inlineStr">
+      <c r="ERU1" s="1" t="inlineStr">
         <is>
           <t>내러티브</t>
         </is>
       </c>
-      <c r="ERU1" s="1" t="inlineStr">
+      <c r="ERV1" s="1" t="inlineStr">
         <is>
           <t>종이아</t>
         </is>
       </c>
-      <c r="ERV1" s="1" t="inlineStr">
+      <c r="ERW1" s="1" t="inlineStr">
         <is>
           <t>종이아트</t>
         </is>
       </c>
-      <c r="ERW1" s="1" t="inlineStr">
+      <c r="ERX1" s="1" t="inlineStr">
         <is>
           <t>pagerank</t>
         </is>
       </c>
-      <c r="ERX1" s="1" t="inlineStr">
+      <c r="ERY1" s="1" t="inlineStr">
         <is>
           <t>모사</t>
         </is>
       </c>
-      <c r="ERY1" s="1" t="inlineStr">
+      <c r="ERZ1" s="1" t="inlineStr">
         <is>
           <t>상식</t>
         </is>
       </c>
-      <c r="ERZ1" s="1" t="inlineStr">
+      <c r="ESA1" s="1" t="inlineStr">
         <is>
           <t>cpu</t>
         </is>
       </c>
-      <c r="ESA1" s="1" t="inlineStr">
+      <c r="ESB1" s="1" t="inlineStr">
         <is>
           <t>ghz</t>
         </is>
       </c>
-      <c r="ESB1" s="1" t="inlineStr">
+      <c r="ESC1" s="1" t="inlineStr">
         <is>
           <t>mega</t>
         </is>
       </c>
-      <c r="ESC1" s="1" t="inlineStr">
+      <c r="ESD1" s="1" t="inlineStr">
         <is>
           <t>mook</t>
         </is>
       </c>
-      <c r="ESD1" s="1" t="inlineStr">
+      <c r="ESE1" s="1" t="inlineStr">
         <is>
           <t>ram</t>
         </is>
       </c>
-      <c r="ESE1" s="1" t="inlineStr">
+      <c r="ESF1" s="1" t="inlineStr">
         <is>
           <t>노트북</t>
         </is>
       </c>
-      <c r="ESF1" s="1" t="inlineStr">
+      <c r="ESG1" s="1" t="inlineStr">
         <is>
           <t>무크</t>
         </is>
       </c>
-      <c r="ESG1" s="1" t="inlineStr">
+      <c r="ESH1" s="1" t="inlineStr">
         <is>
           <t>바이트</t>
         </is>
       </c>
-      <c r="ESH1" s="1" t="inlineStr">
+      <c r="ESI1" s="1" t="inlineStr">
         <is>
           <t>사용량</t>
         </is>
       </c>
-      <c r="ESI1" s="1" t="inlineStr">
+      <c r="ESJ1" s="1" t="inlineStr">
         <is>
           <t>오디오</t>
         </is>
       </c>
-      <c r="ESJ1" s="1" t="inlineStr">
+      <c r="ESK1" s="1" t="inlineStr">
         <is>
           <t>점유</t>
         </is>
       </c>
-      <c r="ESK1" s="1" t="inlineStr">
+      <c r="ESL1" s="1" t="inlineStr">
         <is>
           <t>구인</t>
         </is>
       </c>
-      <c r="ESL1" s="1" t="inlineStr">
+      <c r="ESM1" s="1" t="inlineStr">
         <is>
           <t>융합프로그램</t>
         </is>
       </c>
-      <c r="ESM1" s="1" t="inlineStr">
+      <c r="ESN1" s="1" t="inlineStr">
         <is>
           <t>귀납</t>
         </is>
       </c>
-      <c r="ESN1" s="1" t="inlineStr">
+      <c r="ESO1" s="1" t="inlineStr">
         <is>
           <t>연역</t>
         </is>
       </c>
-      <c r="ESO1" s="1" t="inlineStr">
+      <c r="ESP1" s="1" t="inlineStr">
         <is>
           <t>사화</t>
         </is>
       </c>
-      <c r="ESP1" s="1" t="inlineStr">
+      <c r="ESQ1" s="1" t="inlineStr">
         <is>
           <t>borich</t>
         </is>
       </c>
-      <c r="ESQ1" s="1" t="inlineStr">
+      <c r="ESR1" s="1" t="inlineStr">
         <is>
           <t>focus</t>
         </is>
       </c>
-      <c r="ESR1" s="1" t="inlineStr">
+      <c r="ESS1" s="1" t="inlineStr">
         <is>
           <t>locus</t>
         </is>
       </c>
-      <c r="ESS1" s="1" t="inlineStr">
+      <c r="EST1" s="1" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="EST1" s="1" t="inlineStr">
+      <c r="ESU1" s="1" t="inlineStr">
         <is>
           <t>고성능컴퓨팅</t>
         </is>
       </c>
-      <c r="ESU1" s="1" t="inlineStr">
+      <c r="ESV1" s="1" t="inlineStr">
         <is>
           <t>병렬</t>
         </is>
       </c>
-      <c r="ESV1" s="1" t="inlineStr">
+      <c r="ESW1" s="1" t="inlineStr">
         <is>
           <t>성능컴퓨팅</t>
         </is>
       </c>
-      <c r="ESW1" s="1" t="inlineStr">
+      <c r="ESX1" s="1" t="inlineStr">
         <is>
           <t>요구도</t>
         </is>
       </c>
-      <c r="ESX1" s="1" t="inlineStr">
+      <c r="ESY1" s="1" t="inlineStr">
         <is>
           <t>후보</t>
         </is>
       </c>
-      <c r="ESY1" s="1" t="inlineStr">
+      <c r="ESZ1" s="1" t="inlineStr">
         <is>
           <t>단계설문지</t>
         </is>
       </c>
-      <c r="ESZ1" s="1" t="inlineStr">
+      <c r="ETA1" s="1" t="inlineStr">
         <is>
           <t>부처</t>
         </is>
       </c>
-      <c r="ETA1" s="1" t="inlineStr">
+      <c r="ETB1" s="1" t="inlineStr">
         <is>
           <t>세미나</t>
         </is>
       </c>
-      <c r="ETB1" s="1" t="inlineStr">
+      <c r="ETC1" s="1" t="inlineStr">
         <is>
           <t>연구회</t>
         </is>
       </c>
-      <c r="ETC1" s="1" t="inlineStr">
+      <c r="ETD1" s="1" t="inlineStr">
         <is>
           <t>유튜브</t>
         </is>
       </c>
-      <c r="ETD1" s="1" t="inlineStr">
+      <c r="ETE1" s="1" t="inlineStr">
         <is>
           <t>장학</t>
         </is>
       </c>
-      <c r="ETE1" s="1" t="inlineStr">
+      <c r="ETF1" s="1" t="inlineStr">
         <is>
           <t>컨설팅</t>
         </is>
       </c>
-      <c r="ETF1" s="1" t="inlineStr">
+      <c r="ETG1" s="1" t="inlineStr">
         <is>
           <t>허브</t>
         </is>
       </c>
-      <c r="ETG1" s="1" t="inlineStr">
+      <c r="ETH1" s="1" t="inlineStr">
         <is>
           <t>현업</t>
         </is>
       </c>
-      <c r="ETH1" s="1" t="inlineStr">
+      <c r="ETI1" s="1" t="inlineStr">
         <is>
           <t>cbam</t>
         </is>
       </c>
-      <c r="ETI1" s="1" t="inlineStr">
+      <c r="ETJ1" s="1" t="inlineStr">
         <is>
           <t>hall</t>
         </is>
       </c>
-      <c r="ETJ1" s="1" t="inlineStr">
+      <c r="ETK1" s="1" t="inlineStr">
         <is>
           <t>hord</t>
         </is>
       </c>
-      <c r="ETK1" s="1" t="inlineStr">
+      <c r="ETL1" s="1" t="inlineStr">
         <is>
           <t>앱개발</t>
         </is>
       </c>
-      <c r="ETL1" s="1" t="inlineStr">
+      <c r="ETM1" s="1" t="inlineStr">
         <is>
           <t>프로파일</t>
         </is>
       </c>
-      <c r="ETM1" s="1" t="inlineStr">
+      <c r="ETN1" s="1" t="inlineStr">
         <is>
           <t>access</t>
         </is>
       </c>
-      <c r="ETN1" s="1" t="inlineStr">
+      <c r="ETO1" s="1" t="inlineStr">
         <is>
           <t>oer</t>
         </is>
       </c>
-      <c r="ETO1" s="1" t="inlineStr">
+      <c r="ETP1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="ETP1" s="1" t="inlineStr">
+      <c r="ETQ1" s="1" t="inlineStr">
         <is>
           <t>resource</t>
         </is>
       </c>
-      <c r="ETQ1" s="1" t="inlineStr">
+      <c r="ETR1" s="1" t="inlineStr">
         <is>
           <t>diversify</t>
         </is>
       </c>
-      <c r="ETR1" s="1" t="inlineStr">
+      <c r="ETS1" s="1" t="inlineStr">
         <is>
           <t>idol</t>
         </is>
       </c>
-      <c r="ETS1" s="1" t="inlineStr">
+      <c r="ETT1" s="1" t="inlineStr">
         <is>
           <t>implement</t>
         </is>
       </c>
-      <c r="ETT1" s="1" t="inlineStr">
+      <c r="ETU1" s="1" t="inlineStr">
         <is>
           <t>observe</t>
         </is>
       </c>
-      <c r="ETU1" s="1" t="inlineStr">
+      <c r="ETV1" s="1" t="inlineStr">
         <is>
           <t>다변</t>
         </is>
       </c>
-      <c r="ETV1" s="1" t="inlineStr">
+      <c r="ETW1" s="1" t="inlineStr">
         <is>
           <t>덜파이</t>
         </is>
       </c>
-      <c r="ETW1" s="1" t="inlineStr">
+      <c r="ETX1" s="1" t="inlineStr">
         <is>
           <t>아이돌</t>
         </is>
       </c>
-      <c r="ETX1" s="1" t="inlineStr">
+      <c r="ETY1" s="1" t="inlineStr">
         <is>
           <t>그릿</t>
         </is>
       </c>
-      <c r="ETY1" s="1" t="inlineStr">
+      <c r="ETZ1" s="1" t="inlineStr">
         <is>
           <t>부모지원</t>
         </is>
       </c>
-      <c r="ETZ1" s="1" t="inlineStr">
+      <c r="EUA1" s="1" t="inlineStr">
         <is>
           <t>kci</t>
         </is>
       </c>
-      <c r="EUA1" s="1" t="inlineStr">
+      <c r="EUB1" s="1" t="inlineStr">
         <is>
           <t>소주</t>
         </is>
       </c>
-      <c r="EUB1" s="1" t="inlineStr">
+      <c r="EUC1" s="1" t="inlineStr">
         <is>
           <t>인용</t>
         </is>
       </c>
-      <c r="EUC1" s="1" t="inlineStr">
+      <c r="EUD1" s="1" t="inlineStr">
         <is>
           <t>인용색인</t>
         </is>
       </c>
-      <c r="EUD1" s="1" t="inlineStr">
+      <c r="EUE1" s="1" t="inlineStr">
         <is>
           <t>중첩</t>
         </is>
       </c>
-      <c r="EUE1" s="1" t="inlineStr">
+      <c r="EUF1" s="1" t="inlineStr">
         <is>
           <t>학회</t>
         </is>
       </c>
-      <c r="EUF1" s="1" t="inlineStr">
+      <c r="EUG1" s="1" t="inlineStr">
         <is>
           <t>회수</t>
         </is>
       </c>
-      <c r="EUG1" s="1" t="inlineStr">
+      <c r="EUH1" s="1" t="inlineStr">
         <is>
           <t>csunplugged</t>
         </is>
       </c>
-      <c r="EUH1" s="1" t="inlineStr">
+      <c r="EUI1" s="1" t="inlineStr">
         <is>
           <t>삽입</t>
         </is>
       </c>
-      <c r="EUI1" s="1" t="inlineStr">
+      <c r="EUJ1" s="1" t="inlineStr">
         <is>
           <t>구비</t>
         </is>
       </c>
-      <c r="EUJ1" s="1" t="inlineStr">
+      <c r="EUK1" s="1" t="inlineStr">
         <is>
           <t>미래인재</t>
         </is>
       </c>
-      <c r="EUK1" s="1" t="inlineStr">
+      <c r="EUL1" s="1" t="inlineStr">
         <is>
           <t>의수</t>
         </is>
       </c>
-      <c r="EUL1" s="1" t="inlineStr">
+      <c r="EUM1" s="1" t="inlineStr">
         <is>
           <t>창의융합</t>
         </is>
       </c>
-      <c r="EUM1" s="1" t="inlineStr">
+      <c r="EUN1" s="1" t="inlineStr">
         <is>
           <t>핵심인재</t>
         </is>
       </c>
-      <c r="EUN1" s="1" t="inlineStr">
+      <c r="EUO1" s="1" t="inlineStr">
         <is>
           <t>핵심인재상</t>
         </is>
       </c>
-      <c r="EUO1" s="1" t="inlineStr">
+      <c r="EUP1" s="1" t="inlineStr">
         <is>
           <t>iea</t>
         </is>
       </c>
-      <c r="EUP1" s="1" t="inlineStr">
+      <c r="EUQ1" s="1" t="inlineStr">
         <is>
           <t>modi</t>
         </is>
       </c>
-      <c r="EUQ1" s="1" t="inlineStr">
+      <c r="EUR1" s="1" t="inlineStr">
         <is>
           <t>코딩블록</t>
         </is>
       </c>
-      <c r="EUR1" s="1" t="inlineStr">
+      <c r="EUS1" s="1" t="inlineStr">
         <is>
           <t>협회</t>
         </is>
       </c>
-      <c r="EUS1" s="1" t="inlineStr">
+      <c r="EUT1" s="1" t="inlineStr">
         <is>
           <t>maker</t>
         </is>
       </c>
-      <c r="EUT1" s="1" t="inlineStr">
+      <c r="EUU1" s="1" t="inlineStr">
         <is>
           <t>movement</t>
         </is>
       </c>
-      <c r="EUU1" s="1" t="inlineStr">
+      <c r="EUV1" s="1" t="inlineStr">
         <is>
           <t>레이저</t>
         </is>
       </c>
-      <c r="EUV1" s="1" t="inlineStr">
+      <c r="EUW1" s="1" t="inlineStr">
         <is>
           <t>커팅기</t>
         </is>
       </c>
-      <c r="EUW1" s="1" t="inlineStr">
+      <c r="EUX1" s="1" t="inlineStr">
         <is>
           <t>피지컬컴퓨팅</t>
         </is>
       </c>
-      <c r="EUX1" s="1" t="inlineStr">
+      <c r="EUY1" s="1" t="inlineStr">
         <is>
           <t>인내심</t>
         </is>
       </c>
-      <c r="EUY1" s="1" t="inlineStr">
+      <c r="EUZ1" s="1" t="inlineStr">
         <is>
           <t>가이드북</t>
         </is>
       </c>
-      <c r="EUZ1" s="1" t="inlineStr">
+      <c r="EVA1" s="1" t="inlineStr">
         <is>
           <t>감수</t>
         </is>
       </c>
-      <c r="EVA1" s="1" t="inlineStr">
+      <c r="EVB1" s="1" t="inlineStr">
         <is>
           <t>메이커교육</t>
         </is>
       </c>
-      <c r="EVB1" s="1" t="inlineStr">
+      <c r="EVC1" s="1" t="inlineStr">
         <is>
           <t>완료</t>
         </is>
       </c>
-      <c r="EVC1" s="1" t="inlineStr">
+      <c r="EVD1" s="1" t="inlineStr">
         <is>
           <t>워크시트</t>
         </is>
       </c>
-      <c r="EVD1" s="1" t="inlineStr">
+      <c r="EVE1" s="1" t="inlineStr">
         <is>
           <t>주제군</t>
         </is>
       </c>
-      <c r="EVE1" s="1" t="inlineStr">
+      <c r="EVF1" s="1" t="inlineStr">
         <is>
           <t>착근</t>
         </is>
       </c>
-      <c r="EVF1" s="1" t="inlineStr">
+      <c r="EVG1" s="1" t="inlineStr">
         <is>
           <t>파일럿</t>
         </is>
       </c>
-      <c r="EVG1" s="1" t="inlineStr">
+      <c r="EVH1" s="1" t="inlineStr">
         <is>
           <t>sweet</t>
         </is>
       </c>
-      <c r="EVH1" s="1" t="inlineStr">
+      <c r="EVI1" s="1" t="inlineStr">
         <is>
           <t>내년</t>
         </is>
       </c>
-      <c r="EVI1" s="1" t="inlineStr">
+      <c r="EVJ1" s="1" t="inlineStr">
         <is>
           <t>원양성대</t>
         </is>
       </c>
-      <c r="EVJ1" s="1" t="inlineStr">
+      <c r="EVK1" s="1" t="inlineStr">
         <is>
           <t>데이트</t>
         </is>
       </c>
-      <c r="EVK1" s="1" t="inlineStr">
+      <c r="EVL1" s="1" t="inlineStr">
         <is>
           <t>젠테이션</t>
         </is>
       </c>
-      <c r="EVL1" s="1" t="inlineStr">
+      <c r="EVM1" s="1" t="inlineStr">
         <is>
           <t>파트</t>
         </is>
       </c>
-      <c r="EVM1" s="1" t="inlineStr">
+      <c r="EVN1" s="1" t="inlineStr">
         <is>
           <t>양적</t>
         </is>
       </c>
-      <c r="EVN1" s="1" t="inlineStr">
+      <c r="EVO1" s="1" t="inlineStr">
         <is>
           <t>machine</t>
         </is>
       </c>
-      <c r="EVO1" s="1" t="inlineStr">
+      <c r="EVP1" s="1" t="inlineStr">
         <is>
           <t>머신러닝</t>
         </is>
       </c>
-      <c r="EVP1" s="1" t="inlineStr">
+      <c r="EVQ1" s="1" t="inlineStr">
         <is>
           <t>연구학교</t>
         </is>
       </c>
-      <c r="EVQ1" s="1" t="inlineStr">
+      <c r="EVR1" s="1" t="inlineStr">
         <is>
           <t>향상도</t>
         </is>
       </c>
-      <c r="EVR1" s="1" t="inlineStr">
+      <c r="EVS1" s="1" t="inlineStr">
         <is>
           <t>효인</t>
         </is>
       </c>
-      <c r="EVS1" s="1" t="inlineStr">
+      <c r="EVT1" s="1" t="inlineStr">
         <is>
           <t>lms</t>
         </is>
       </c>
-      <c r="EVT1" s="1" t="inlineStr">
+      <c r="EVU1" s="1" t="inlineStr">
         <is>
           <t>취도</t>
         </is>
       </c>
-      <c r="EVU1" s="1" t="inlineStr">
+      <c r="EVV1" s="1" t="inlineStr">
         <is>
           <t>위두</t>
         </is>
       </c>
-      <c r="EVV1" s="1" t="inlineStr">
+      <c r="EVW1" s="1" t="inlineStr">
         <is>
           <t>참여자</t>
         </is>
       </c>
-      <c r="EVW1" s="1" t="inlineStr">
+      <c r="EVX1" s="1" t="inlineStr">
         <is>
           <t>블록체</t>
         </is>
       </c>
-      <c r="EVX1" s="1" t="inlineStr">
+      <c r="EVY1" s="1" t="inlineStr">
         <is>
           <t>블록체인</t>
         </is>
       </c>
-      <c r="EVY1" s="1" t="inlineStr">
+      <c r="EVZ1" s="1" t="inlineStr">
         <is>
           <t>처리역량</t>
         </is>
       </c>
-      <c r="EVZ1" s="1" t="inlineStr">
+      <c r="EWA1" s="1" t="inlineStr">
         <is>
           <t>체역량</t>
         </is>
       </c>
-      <c r="EWA1" s="1" t="inlineStr">
+      <c r="EWB1" s="1" t="inlineStr">
         <is>
           <t>체인</t>
         </is>
       </c>
-      <c r="EWB1" s="1" t="inlineStr">
+      <c r="EWC1" s="1" t="inlineStr">
         <is>
           <t>해결법</t>
         </is>
       </c>
-      <c r="EWC1" s="1" t="inlineStr">
+      <c r="EWD1" s="1" t="inlineStr">
         <is>
           <t>일체</t>
         </is>
       </c>
-      <c r="EWD1" s="1" t="inlineStr">
+      <c r="EWE1" s="1" t="inlineStr">
         <is>
           <t>폐쇄</t>
         </is>
       </c>
-      <c r="EWE1" s="1" t="inlineStr">
+      <c r="EWF1" s="1" t="inlineStr">
         <is>
           <t>문맥</t>
         </is>
       </c>
-      <c r="EWF1" s="1" t="inlineStr">
+      <c r="EWG1" s="1" t="inlineStr">
         <is>
           <t>지원청</t>
         </is>
       </c>
-      <c r="EWG1" s="1" t="inlineStr">
+      <c r="EWH1" s="1" t="inlineStr">
         <is>
           <t>발원</t>
         </is>
       </c>
-      <c r="EWH1" s="1" t="inlineStr">
+      <c r="EWI1" s="1" t="inlineStr">
         <is>
           <t>한국교육개발원</t>
         </is>
       </c>
-      <c r="EWI1" s="1" t="inlineStr">
+      <c r="EWJ1" s="1" t="inlineStr">
         <is>
           <t>경과</t>
         </is>
       </c>
-      <c r="EWJ1" s="1" t="inlineStr">
+      <c r="EWK1" s="1" t="inlineStr">
         <is>
           <t>경주</t>
         </is>
       </c>
-      <c r="EWK1" s="1" t="inlineStr">
+      <c r="EWL1" s="1" t="inlineStr">
         <is>
           <t>제한점</t>
         </is>
       </c>
-      <c r="EWL1" s="1" t="inlineStr">
+      <c r="EWM1" s="1" t="inlineStr">
         <is>
           <t>딱지</t>
         </is>
       </c>
-      <c r="EWM1" s="1" t="inlineStr">
+      <c r="EWN1" s="1" t="inlineStr">
         <is>
           <t>부록</t>
         </is>
       </c>
-      <c r="EWN1" s="1" t="inlineStr">
+      <c r="EWO1" s="1" t="inlineStr">
         <is>
           <t>삽화</t>
         </is>
       </c>
-      <c r="EWO1" s="1" t="inlineStr">
+      <c r="EWP1" s="1" t="inlineStr">
         <is>
           <t>연간</t>
         </is>
       </c>
-      <c r="EWP1" s="1" t="inlineStr">
+      <c r="EWQ1" s="1" t="inlineStr">
         <is>
           <t>중국</t>
         </is>
       </c>
-      <c r="EWQ1" s="1" t="inlineStr">
+      <c r="EWR1" s="1" t="inlineStr">
         <is>
           <t>게이미피게이션</t>
         </is>
       </c>
-      <c r="EWR1" s="1" t="inlineStr">
+      <c r="EWS1" s="1" t="inlineStr">
         <is>
           <t>드게</t>
         </is>
       </c>
-      <c r="EWS1" s="1" t="inlineStr">
+      <c r="EWT1" s="1" t="inlineStr">
         <is>
           <t>codeblocks</t>
         </is>
       </c>
-      <c r="EWT1" s="1" t="inlineStr">
+      <c r="EWU1" s="1" t="inlineStr">
         <is>
           <t>틴커캐드</t>
         </is>
       </c>
-      <c r="EWU1" s="1" t="inlineStr">
+      <c r="EWV1" s="1" t="inlineStr">
         <is>
           <t>화면속</t>
         </is>
       </c>
-      <c r="EWV1" s="1" t="inlineStr">
+      <c r="EWW1" s="1" t="inlineStr">
         <is>
           <t>전격</t>
         </is>
       </c>
-      <c r="EWW1" s="1" t="inlineStr">
+      <c r="EWX1" s="1" t="inlineStr">
         <is>
           <t>프랑스</t>
         </is>
       </c>
-      <c r="EWX1" s="1" t="inlineStr">
+      <c r="EWY1" s="1" t="inlineStr">
         <is>
           <t>플랜</t>
         </is>
       </c>
-      <c r="EWY1" s="1" t="inlineStr">
+      <c r="EWZ1" s="1" t="inlineStr">
         <is>
           <t>짝프로그래밍</t>
         </is>
       </c>
-      <c r="EWZ1" s="1" t="inlineStr">
+      <c r="EXA1" s="1" t="inlineStr">
         <is>
           <t>출범</t>
         </is>
       </c>
-      <c r="EXA1" s="1" t="inlineStr">
+      <c r="EXB1" s="1" t="inlineStr">
         <is>
           <t>kinect</t>
         </is>
       </c>
-      <c r="EXB1" s="1" t="inlineStr">
+      <c r="EXC1" s="1" t="inlineStr">
         <is>
           <t>다감각</t>
         </is>
       </c>
-      <c r="EXC1" s="1" t="inlineStr">
+      <c r="EXD1" s="1" t="inlineStr">
         <is>
           <t>환상</t>
         </is>
       </c>
-      <c r="EXD1" s="1" t="inlineStr">
+      <c r="EXE1" s="1" t="inlineStr">
         <is>
           <t>csta</t>
         </is>
       </c>
-      <c r="EXE1" s="1" t="inlineStr">
+      <c r="EXF1" s="1" t="inlineStr">
         <is>
           <t>iste</t>
         </is>
       </c>
-      <c r="EXF1" s="1" t="inlineStr">
+      <c r="EXG1" s="1" t="inlineStr">
         <is>
           <t>수감각</t>
         </is>
       </c>
-      <c r="EXG1" s="1" t="inlineStr">
+      <c r="EXH1" s="1" t="inlineStr">
         <is>
           <t>경상</t>
         </is>
       </c>
-      <c r="EXH1" s="1" t="inlineStr">
+      <c r="EXI1" s="1" t="inlineStr">
         <is>
           <t>설문데이터</t>
         </is>
       </c>
-      <c r="EXI1" s="1" t="inlineStr">
+      <c r="EXJ1" s="1" t="inlineStr">
         <is>
           <t>예체</t>
         </is>
       </c>
-      <c r="EXJ1" s="1" t="inlineStr">
+      <c r="EXK1" s="1" t="inlineStr">
         <is>
           <t>전교</t>
         </is>
       </c>
-      <c r="EXK1" s="1" t="inlineStr">
+      <c r="EXL1" s="1" t="inlineStr">
         <is>
           <t>viscuit</t>
         </is>
       </c>
-      <c r="EXL1" s="1" t="inlineStr">
+      <c r="EXM1" s="1" t="inlineStr">
         <is>
           <t>국외</t>
         </is>
       </c>
-      <c r="EXM1" s="1" t="inlineStr">
+      <c r="EXN1" s="1" t="inlineStr">
         <is>
           <t>비스킷</t>
         </is>
       </c>
-      <c r="EXN1" s="1" t="inlineStr">
+      <c r="EXO1" s="1" t="inlineStr">
         <is>
           <t>스크래치주니어</t>
         </is>
       </c>
-      <c r="EXO1" s="1" t="inlineStr">
+      <c r="EXP1" s="1" t="inlineStr">
         <is>
           <t>주니</t>
         </is>
       </c>
-      <c r="EXP1" s="1" t="inlineStr">
+      <c r="EXQ1" s="1" t="inlineStr">
         <is>
           <t>lc</t>
         </is>
       </c>
-      <c r="EXQ1" s="1" t="inlineStr">
+      <c r="EXR1" s="1" t="inlineStr">
         <is>
           <t>베이지</t>
         </is>
       </c>
-      <c r="EXR1" s="1" t="inlineStr">
+      <c r="EXS1" s="1" t="inlineStr">
         <is>
           <t>베이지안</t>
         </is>
       </c>
-      <c r="EXS1" s="1" t="inlineStr">
+      <c r="EXT1" s="1" t="inlineStr">
         <is>
           <t>상대방</t>
         </is>
       </c>
-      <c r="EXT1" s="1" t="inlineStr">
+      <c r="EXU1" s="1" t="inlineStr">
         <is>
           <t>테스트베드</t>
         </is>
       </c>
-      <c r="EXU1" s="1" t="inlineStr">
+      <c r="EXV1" s="1" t="inlineStr">
         <is>
           <t>로그데이터</t>
         </is>
       </c>
-      <c r="EXV1" s="1" t="inlineStr">
+      <c r="EXW1" s="1" t="inlineStr">
         <is>
           <t>방송고</t>
         </is>
       </c>
-      <c r="EXW1" s="1" t="inlineStr">
+      <c r="EXX1" s="1" t="inlineStr">
         <is>
           <t>성실도</t>
         </is>
       </c>
-      <c r="EXX1" s="1" t="inlineStr">
+      <c r="EXY1" s="1" t="inlineStr">
         <is>
           <t>왜도</t>
         </is>
       </c>
-      <c r="EXY1" s="1" t="inlineStr">
+      <c r="EXZ1" s="1" t="inlineStr">
         <is>
           <t>진도</t>
         </is>
       </c>
-      <c r="EXZ1" s="1" t="inlineStr">
+      <c r="EYA1" s="1" t="inlineStr">
         <is>
           <t>차시당</t>
         </is>
       </c>
-      <c r="EYA1" s="1" t="inlineStr">
+      <c r="EYB1" s="1" t="inlineStr">
         <is>
           <t>첨도</t>
         </is>
       </c>
-      <c r="EYB1" s="1" t="inlineStr">
+      <c r="EYC1" s="1" t="inlineStr">
         <is>
           <t>학기동안</t>
         </is>
       </c>
-      <c r="EYC1" s="1" t="inlineStr">
+      <c r="EYD1" s="1" t="inlineStr">
         <is>
           <t>tinkercad</t>
         </is>
       </c>
-      <c r="EYD1" s="1" t="inlineStr">
+      <c r="EYE1" s="1" t="inlineStr">
         <is>
           <t>dslr</t>
         </is>
       </c>
-      <c r="EYE1" s="1" t="inlineStr">
+      <c r="EYF1" s="1" t="inlineStr">
         <is>
           <t>두이</t>
         </is>
       </c>
-      <c r="EYF1" s="1" t="inlineStr">
+      <c r="EYG1" s="1" t="inlineStr">
         <is>
           <t>두이노</t>
         </is>
       </c>
-      <c r="EYG1" s="1" t="inlineStr">
+      <c r="EYH1" s="1" t="inlineStr">
         <is>
           <t>복합물</t>
         </is>
       </c>
-      <c r="EYH1" s="1" t="inlineStr">
+      <c r="EYI1" s="1" t="inlineStr">
         <is>
           <t>슈팅</t>
         </is>
       </c>
-      <c r="EYI1" s="1" t="inlineStr">
+      <c r="EYJ1" s="1" t="inlineStr">
         <is>
           <t>신호</t>
         </is>
       </c>
-      <c r="EYJ1" s="1" t="inlineStr">
+      <c r="EYK1" s="1" t="inlineStr">
         <is>
           <t>일자</t>
         </is>
       </c>
-      <c r="EYK1" s="1" t="inlineStr">
+      <c r="EYL1" s="1" t="inlineStr">
         <is>
           <t>임베디드</t>
         </is>
       </c>
-      <c r="EYL1" s="1" t="inlineStr">
+      <c r="EYM1" s="1" t="inlineStr">
         <is>
           <t>저전력</t>
         </is>
       </c>
-      <c r="EYM1" s="1" t="inlineStr">
+      <c r="EYN1" s="1" t="inlineStr">
         <is>
           <t>전력량</t>
         </is>
       </c>
-      <c r="EYN1" s="1" t="inlineStr">
+      <c r="EYO1" s="1" t="inlineStr">
         <is>
           <t>절전</t>
         </is>
       </c>
-      <c r="EYO1" s="1" t="inlineStr">
+      <c r="EYP1" s="1" t="inlineStr">
         <is>
           <t>태양</t>
         </is>
       </c>
-      <c r="EYP1" s="1" t="inlineStr">
+      <c r="EYQ1" s="1" t="inlineStr">
         <is>
           <t>태양광</t>
         </is>
       </c>
-      <c r="EYQ1" s="1" t="inlineStr">
+      <c r="EYR1" s="1" t="inlineStr">
         <is>
           <t>펌웨어</t>
         </is>
       </c>
-      <c r="EYR1" s="1" t="inlineStr">
+      <c r="EYS1" s="1" t="inlineStr">
         <is>
           <t>문해력</t>
         </is>
       </c>
-      <c r="EYS1" s="1" t="inlineStr">
+      <c r="EYT1" s="1" t="inlineStr">
         <is>
           <t>제공자</t>
         </is>
       </c>
-      <c r="EYT1" s="1" t="inlineStr">
+      <c r="EYU1" s="1" t="inlineStr">
         <is>
           <t>brennan</t>
         </is>
       </c>
-      <c r="EYU1" s="1" t="inlineStr">
+      <c r="EYV1" s="1" t="inlineStr">
         <is>
           <t>resnick</t>
         </is>
       </c>
-      <c r="EYV1" s="1" t="inlineStr">
+      <c r="EYW1" s="1" t="inlineStr">
         <is>
           <t>cqr</t>
         </is>
       </c>
-      <c r="EYW1" s="1" t="inlineStr">
+      <c r="EYX1" s="1" t="inlineStr">
         <is>
           <t>변동</t>
         </is>
       </c>
-      <c r="EYX1" s="1" t="inlineStr">
+      <c r="EYY1" s="1" t="inlineStr">
         <is>
           <t>오우크쇼트</t>
         </is>
       </c>
-      <c r="EYY1" s="1" t="inlineStr">
+      <c r="EYZ1" s="1" t="inlineStr">
         <is>
           <t>철학</t>
         </is>
       </c>
-      <c r="EYZ1" s="1" t="inlineStr">
+      <c r="EZA1" s="1" t="inlineStr">
         <is>
           <t>교수진</t>
         </is>
       </c>
-      <c r="EZA1" s="1" t="inlineStr">
+      <c r="EZB1" s="1" t="inlineStr">
         <is>
           <t>조교</t>
         </is>
       </c>
-      <c r="EZB1" s="1" t="inlineStr">
+      <c r="EZC1" s="1" t="inlineStr">
         <is>
           <t>트랙</t>
         </is>
       </c>
-      <c r="EZC1" s="1" t="inlineStr">
+      <c r="EZD1" s="1" t="inlineStr">
         <is>
           <t>특화</t>
         </is>
       </c>
-      <c r="EZD1" s="1" t="inlineStr">
+      <c r="EZE1" s="1" t="inlineStr">
         <is>
           <t>핵심교과</t>
         </is>
       </c>
-      <c r="EZE1" s="1" t="inlineStr">
+      <c r="EZF1" s="1" t="inlineStr">
         <is>
           <t>agency</t>
         </is>
       </c>
-      <c r="EZF1" s="1" t="inlineStr">
+      <c r="EZG1" s="1" t="inlineStr">
         <is>
           <t>modeling</t>
         </is>
       </c>
-      <c r="EZG1" s="1" t="inlineStr">
+      <c r="EZH1" s="1" t="inlineStr">
         <is>
           <t>민속놀이</t>
         </is>
       </c>
-      <c r="EZH1" s="1" t="inlineStr">
+      <c r="EZI1" s="1" t="inlineStr">
         <is>
           <t>민족</t>
         </is>
       </c>
-      <c r="EZI1" s="1" t="inlineStr">
+      <c r="EZJ1" s="1" t="inlineStr">
         <is>
           <t>운행</t>
         </is>
       </c>
-      <c r="EZJ1" s="1" t="inlineStr">
+      <c r="EZK1" s="1" t="inlineStr">
         <is>
           <t>전통문화</t>
         </is>
       </c>
-      <c r="EZK1" s="1" t="inlineStr">
+      <c r="EZL1" s="1" t="inlineStr">
         <is>
           <t>천체</t>
         </is>
       </c>
-      <c r="EZL1" s="1" t="inlineStr">
+      <c r="EZM1" s="1" t="inlineStr">
         <is>
           <t>lda</t>
         </is>
       </c>
-      <c r="EZM1" s="1" t="inlineStr">
+      <c r="EZN1" s="1" t="inlineStr">
         <is>
           <t>모델링분석</t>
         </is>
       </c>
-      <c r="EZN1" s="1" t="inlineStr">
+      <c r="EZO1" s="1" t="inlineStr">
         <is>
           <t>att</t>
         </is>
       </c>
-      <c r="EZO1" s="1" t="inlineStr">
+      <c r="EZP1" s="1" t="inlineStr">
         <is>
           <t>fc</t>
         </is>
       </c>
-      <c r="EZP1" s="1" t="inlineStr">
+      <c r="EZQ1" s="1" t="inlineStr">
         <is>
           <t>penj</t>
         </is>
       </c>
-      <c r="EZQ1" s="1" t="inlineStr">
+      <c r="EZR1" s="1" t="inlineStr">
         <is>
           <t>ps</t>
         </is>
       </c>
-      <c r="EZR1" s="1" t="inlineStr">
+      <c r="EZS1" s="1" t="inlineStr">
         <is>
           <t>pu</t>
         </is>
       </c>
-      <c r="EZS1" s="1" t="inlineStr">
+      <c r="EZT1" s="1" t="inlineStr">
         <is>
           <t>si</t>
         </is>
       </c>
-      <c r="EZT1" s="1" t="inlineStr">
+      <c r="EZU1" s="1" t="inlineStr">
         <is>
           <t>sp</t>
         </is>
       </c>
-      <c r="EZU1" s="1" t="inlineStr">
+      <c r="EZV1" s="1" t="inlineStr">
         <is>
           <t>ttrust</t>
         </is>
       </c>
-      <c r="EZV1" s="1" t="inlineStr">
+      <c r="EZW1" s="1" t="inlineStr">
         <is>
           <t>고교학점</t>
         </is>
       </c>
-      <c r="EZW1" s="1" t="inlineStr">
+      <c r="EZX1" s="1" t="inlineStr">
         <is>
           <t>농산어</t>
         </is>
       </c>
-      <c r="EZX1" s="1" t="inlineStr">
+      <c r="EZY1" s="1" t="inlineStr">
         <is>
           <t>문화적</t>
         </is>
       </c>
-      <c r="EZY1" s="1" t="inlineStr">
+      <c r="EZZ1" s="1" t="inlineStr">
         <is>
           <t>보조학습</t>
         </is>
       </c>
-      <c r="EZZ1" s="1" t="inlineStr">
+      <c r="FAA1" s="1" t="inlineStr">
         <is>
           <t>어학</t>
         </is>
       </c>
-      <c r="FAA1" s="1" t="inlineStr">
+      <c r="FAB1" s="1" t="inlineStr">
         <is>
           <t>층화표집</t>
         </is>
       </c>
-      <c r="FAB1" s="1" t="inlineStr">
+      <c r="FAC1" s="1" t="inlineStr">
         <is>
           <t>cnn</t>
         </is>
       </c>
-      <c r="FAC1" s="1" t="inlineStr">
+      <c r="FAD1" s="1" t="inlineStr">
         <is>
           <t>유익</t>
         </is>
       </c>
-      <c r="FAD1" s="1" t="inlineStr">
+      <c r="FAE1" s="1" t="inlineStr">
         <is>
           <t>적합도</t>
         </is>
       </c>
-      <c r="FAE1" s="1" t="inlineStr">
+      <c r="FAF1" s="1" t="inlineStr">
         <is>
           <t>컨볼루션네트워크</t>
         </is>
       </c>
-      <c r="FAF1" s="1" t="inlineStr">
+      <c r="FAG1" s="1" t="inlineStr">
         <is>
           <t>ahp</t>
         </is>
       </c>
-      <c r="FAG1" s="1" t="inlineStr">
+      <c r="FAH1" s="1" t="inlineStr">
         <is>
           <t>고도</t>
         </is>
       </c>
-      <c r="FAH1" s="1" t="inlineStr">
+      <c r="FAI1" s="1" t="inlineStr">
         <is>
           <t>국한</t>
         </is>
       </c>
-      <c r="FAI1" s="1" t="inlineStr">
+      <c r="FAJ1" s="1" t="inlineStr">
         <is>
           <t>패널데이터</t>
         </is>
       </c>
-      <c r="FAJ1" s="1" t="inlineStr">
+      <c r="FAK1" s="1" t="inlineStr">
         <is>
           <t>횡단</t>
         </is>
       </c>
-      <c r="FAK1" s="1" t="inlineStr">
+      <c r="FAL1" s="1" t="inlineStr">
         <is>
           <t>concor</t>
         </is>
       </c>
-      <c r="FAL1" s="1" t="inlineStr">
+      <c r="FAM1" s="1" t="inlineStr">
         <is>
           <t>데이터처리</t>
         </is>
       </c>
-      <c r="FAM1" s="1" t="inlineStr">
+      <c r="FAN1" s="1" t="inlineStr">
         <is>
           <t>마이닝</t>
         </is>
       </c>
-      <c r="FAN1" s="1" t="inlineStr">
+      <c r="FAO1" s="1" t="inlineStr">
         <is>
           <t>필수교과</t>
         </is>
       </c>
-      <c r="FAO1" s="1" t="inlineStr">
+      <c r="FAP1" s="1" t="inlineStr">
         <is>
           <t>변조</t>
         </is>
       </c>
-      <c r="FAP1" s="1" t="inlineStr">
+      <c r="FAQ1" s="1" t="inlineStr">
         <is>
           <t>위변조</t>
         </is>
       </c>
-      <c r="FAQ1" s="1" t="inlineStr">
+      <c r="FAR1" s="1" t="inlineStr">
         <is>
           <t>카드게임</t>
         </is>
       </c>
-      <c r="FAR1" s="1" t="inlineStr">
+      <c r="FAS1" s="1" t="inlineStr">
         <is>
           <t>해시</t>
         </is>
       </c>
-      <c r="FAS1" s="1" t="inlineStr">
+      <c r="FAT1" s="1" t="inlineStr">
         <is>
           <t>화제</t>
         </is>
@@ -20950,7 +20955,7 @@
         <v>0.18</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6200000000000001</v>
+        <v>0.6300000000000001</v>
       </c>
       <c r="F2" t="n">
         <v>0.36</v>
@@ -20962,22 +20967,22 @@
         <v>0.18</v>
       </c>
       <c r="I2" t="n">
-        <v>14.35999999999995</v>
+        <v>14.38999999999995</v>
       </c>
       <c r="J2" t="n">
         <v>3.5</v>
       </c>
       <c r="K2" t="n">
-        <v>15.3499999999999</v>
+        <v>15.3799999999999</v>
       </c>
       <c r="L2" t="n">
-        <v>3.53</v>
+        <v>3.54</v>
       </c>
       <c r="M2" t="n">
         <v>7.559999999999995</v>
       </c>
       <c r="N2" t="n">
-        <v>11.57999999999997</v>
+        <v>11.58999999999997</v>
       </c>
       <c r="O2" t="n">
         <v>4.089999999999999</v>
@@ -20992,7 +20997,7 @@
         <v>16.00999999999999</v>
       </c>
       <c r="S2" t="n">
-        <v>14.69</v>
+        <v>14.7</v>
       </c>
       <c r="T2" t="n">
         <v>0.33</v>
@@ -21001,7 +21006,7 @@
         <v>0.28</v>
       </c>
       <c r="V2" t="n">
-        <v>8.579999999999993</v>
+        <v>8.589999999999995</v>
       </c>
       <c r="W2" t="n">
         <v>1.36</v>
@@ -21010,16 +21015,16 @@
         <v>20.65999999999999</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.219999999999999</v>
+        <v>4.229999999999999</v>
       </c>
       <c r="Z2" t="n">
-        <v>29.26999999999999</v>
+        <v>29.32999999999999</v>
       </c>
       <c r="AA2" t="n">
-        <v>13.22999999999994</v>
+        <v>13.23999999999995</v>
       </c>
       <c r="AB2" t="n">
-        <v>14.20999999999993</v>
+        <v>14.19999999999993</v>
       </c>
       <c r="AC2" t="n">
         <v>12.43999999999995</v>
@@ -21043,10 +21048,10 @@
         <v>4.969999999999999</v>
       </c>
       <c r="AJ2" t="n">
-        <v>2.47</v>
+        <v>2.48</v>
       </c>
       <c r="AK2" t="n">
-        <v>14.60999999999998</v>
+        <v>14.61999999999998</v>
       </c>
       <c r="AL2" t="n">
         <v>7.010000000000001</v>
@@ -21055,25 +21060,25 @@
         <v>2.940000000000001</v>
       </c>
       <c r="AN2" t="n">
-        <v>8.329999999999997</v>
+        <v>8.359999999999996</v>
       </c>
       <c r="AO2" t="n">
         <v>4.949999999999996</v>
       </c>
       <c r="AP2" t="n">
-        <v>6.609999999999993</v>
+        <v>6.629999999999993</v>
       </c>
       <c r="AQ2" t="n">
-        <v>9.270000000000005</v>
+        <v>9.340000000000003</v>
       </c>
       <c r="AR2" t="n">
-        <v>10.87</v>
+        <v>10.88</v>
       </c>
       <c r="AS2" t="n">
-        <v>11.37</v>
+        <v>11.38</v>
       </c>
       <c r="AT2" t="n">
-        <v>4.279999999999998</v>
+        <v>4.289999999999999</v>
       </c>
       <c r="AU2" t="n">
         <v>3.619999999999999</v>
@@ -21094,13 +21099,13 @@
         <v>1.08</v>
       </c>
       <c r="BA2" t="n">
-        <v>9.739999999999998</v>
+        <v>9.75</v>
       </c>
       <c r="BB2" t="n">
         <v>15.83999999999997</v>
       </c>
       <c r="BC2" t="n">
-        <v>3.939999999999999</v>
+        <v>3.949999999999998</v>
       </c>
       <c r="BD2" t="n">
         <v>3.360000000000002</v>
@@ -21115,7 +21120,7 @@
         <v>5.75</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="BI2" t="n">
         <v>0.41</v>
@@ -21130,7 +21135,7 @@
         <v>5.31</v>
       </c>
       <c r="BM2" t="n">
-        <v>11.08999999999996</v>
+        <v>11.10999999999996</v>
       </c>
       <c r="BN2" t="n">
         <v>0.9600000000000001</v>
@@ -21139,13 +21144,13 @@
         <v>24.84999999999999</v>
       </c>
       <c r="BP2" t="n">
-        <v>6.499999999999998</v>
+        <v>6.509999999999998</v>
       </c>
       <c r="BQ2" t="n">
-        <v>8.979999999999995</v>
+        <v>8.989999999999995</v>
       </c>
       <c r="BR2" t="n">
-        <v>8.749999999999989</v>
+        <v>8.769999999999989</v>
       </c>
       <c r="BS2" t="n">
         <v>4.070000000000001</v>
@@ -21160,7 +21165,7 @@
         <v>0.62</v>
       </c>
       <c r="BW2" t="n">
-        <v>14.82999999999994</v>
+        <v>14.86999999999994</v>
       </c>
       <c r="BX2" t="n">
         <v>3.399999999999999</v>
@@ -21169,19 +21174,19 @@
         <v>9.149999999999999</v>
       </c>
       <c r="BZ2" t="n">
-        <v>1.920000000000001</v>
+        <v>1.930000000000001</v>
       </c>
       <c r="CA2" t="n">
         <v>1.05</v>
       </c>
       <c r="CB2" t="n">
-        <v>3.46</v>
+        <v>3.45</v>
       </c>
       <c r="CC2" t="n">
         <v>6.130000000000001</v>
       </c>
       <c r="CD2" t="n">
-        <v>7.829999999999994</v>
+        <v>7.839999999999994</v>
       </c>
       <c r="CE2" t="n">
         <v>2.44</v>
@@ -21190,25 +21195,25 @@
         <v>8.999999999999993</v>
       </c>
       <c r="CG2" t="n">
-        <v>24.81000000000004</v>
+        <v>24.83000000000004</v>
       </c>
       <c r="CH2" t="n">
-        <v>8.49</v>
+        <v>8.5</v>
       </c>
       <c r="CI2" t="n">
-        <v>7.8</v>
+        <v>7.799999999999999</v>
       </c>
       <c r="CJ2" t="n">
         <v>12.73999999999998</v>
       </c>
       <c r="CK2" t="n">
-        <v>16.53999999999996</v>
+        <v>16.55999999999996</v>
       </c>
       <c r="CL2" t="n">
         <v>8.220000000000001</v>
       </c>
       <c r="CM2" t="n">
-        <v>6.02</v>
+        <v>6.010000000000001</v>
       </c>
       <c r="CN2" t="n">
         <v>0.11</v>
@@ -21220,7 +21225,7 @@
         <v>1.79</v>
       </c>
       <c r="CQ2" t="n">
-        <v>2.830000000000001</v>
+        <v>2.82</v>
       </c>
       <c r="CR2" t="n">
         <v>5.739999999999997</v>
@@ -21250,7 +21255,7 @@
         <v>3.010000000000001</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="DB2" t="n">
         <v>0.85</v>
@@ -21268,7 +21273,7 @@
         <v>16.75</v>
       </c>
       <c r="DG2" t="n">
-        <v>6.179999999999998</v>
+        <v>6.199999999999998</v>
       </c>
       <c r="DH2" t="n">
         <v>4.640000000000001</v>
@@ -21280,7 +21285,7 @@
         <v>0.4399999999999999</v>
       </c>
       <c r="DK2" t="n">
-        <v>17.66</v>
+        <v>17.67000000000001</v>
       </c>
       <c r="DL2" t="n">
         <v>1.45</v>
@@ -21313,10 +21318,10 @@
         <v>3.39</v>
       </c>
       <c r="DV2" t="n">
-        <v>4.239999999999999</v>
+        <v>4.25</v>
       </c>
       <c r="DW2" t="n">
-        <v>17.34999999999998</v>
+        <v>17.39999999999998</v>
       </c>
       <c r="DX2" t="n">
         <v>0.09</v>
@@ -21346,7 +21351,7 @@
         <v>0.09</v>
       </c>
       <c r="EG2" t="n">
-        <v>8.669999999999998</v>
+        <v>8.719999999999999</v>
       </c>
       <c r="EH2" t="n">
         <v>2.350000000000001</v>
@@ -21373,10 +21378,10 @@
         <v>2.85</v>
       </c>
       <c r="EP2" t="n">
-        <v>8.769999999999984</v>
+        <v>8.779999999999983</v>
       </c>
       <c r="EQ2" t="n">
-        <v>7.329999999999997</v>
+        <v>7.339999999999997</v>
       </c>
       <c r="ER2" t="n">
         <v>0.09</v>
@@ -21388,7 +21393,7 @@
         <v>4.33</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="EV2" t="n">
         <v>0.09</v>
@@ -21409,7 +21414,7 @@
         <v>7.279999999999999</v>
       </c>
       <c r="FB2" t="n">
-        <v>5.189999999999998</v>
+        <v>5.209999999999997</v>
       </c>
       <c r="FC2" t="n">
         <v>0.9400000000000001</v>
@@ -21418,19 +21423,19 @@
         <v>0.09</v>
       </c>
       <c r="FE2" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="FF2" t="n">
         <v>0.09</v>
       </c>
       <c r="FG2" t="n">
-        <v>9.929999999999989</v>
+        <v>9.949999999999989</v>
       </c>
       <c r="FH2" t="n">
-        <v>5.59</v>
+        <v>5.609999999999999</v>
       </c>
       <c r="FI2" t="n">
-        <v>8.499999999999998</v>
+        <v>8.519999999999998</v>
       </c>
       <c r="FJ2" t="n">
         <v>0.51</v>
@@ -21493,10 +21498,10 @@
         <v>4.54</v>
       </c>
       <c r="GD2" t="n">
-        <v>6.039999999999998</v>
+        <v>6.049999999999998</v>
       </c>
       <c r="GE2" t="n">
-        <v>6.299999999999999</v>
+        <v>6.289999999999999</v>
       </c>
       <c r="GF2" t="n">
         <v>2.67</v>
@@ -21505,16 +21510,16 @@
         <v>0.39</v>
       </c>
       <c r="GH2" t="n">
-        <v>15.09999999999997</v>
+        <v>15.10999999999997</v>
       </c>
       <c r="GI2" t="n">
         <v>4.419999999999999</v>
       </c>
       <c r="GJ2" t="n">
-        <v>2.12</v>
+        <v>2.13</v>
       </c>
       <c r="GK2" t="n">
-        <v>3.58</v>
+        <v>3.59</v>
       </c>
       <c r="GL2" t="n">
         <v>1.2</v>
@@ -21532,34 +21537,34 @@
         <v>1.56</v>
       </c>
       <c r="GQ2" t="n">
-        <v>6.750000000000001</v>
+        <v>6.760000000000002</v>
       </c>
       <c r="GR2" t="n">
-        <v>4.739999999999998</v>
+        <v>4.749999999999999</v>
       </c>
       <c r="GS2" t="n">
         <v>0.27</v>
       </c>
       <c r="GT2" t="n">
-        <v>4.739999999999998</v>
+        <v>4.729999999999999</v>
       </c>
       <c r="GU2" t="n">
         <v>0.27</v>
       </c>
       <c r="GV2" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="GW2" t="n">
         <v>1.31</v>
       </c>
       <c r="GX2" t="n">
-        <v>5.999999999999999</v>
+        <v>6.01</v>
       </c>
       <c r="GY2" t="n">
         <v>0.8899999999999999</v>
       </c>
       <c r="GZ2" t="n">
-        <v>4.73</v>
+        <v>4.75</v>
       </c>
       <c r="HA2" t="n">
         <v>2.660000000000001</v>
@@ -21586,7 +21591,7 @@
         <v>0.14</v>
       </c>
       <c r="HI2" t="n">
-        <v>4.22</v>
+        <v>4.23</v>
       </c>
       <c r="HJ2" t="n">
         <v>3.749999999999998</v>
@@ -21598,7 +21603,7 @@
         <v>0.71</v>
       </c>
       <c r="HM2" t="n">
-        <v>6.569999999999997</v>
+        <v>6.579999999999997</v>
       </c>
       <c r="HN2" t="n">
         <v>0.6499999999999999</v>
@@ -21634,25 +21639,25 @@
         <v>1.45</v>
       </c>
       <c r="HY2" t="n">
-        <v>3.800000000000001</v>
+        <v>3.810000000000001</v>
       </c>
       <c r="HZ2" t="n">
         <v>1.12</v>
       </c>
       <c r="IA2" t="n">
-        <v>5.349999999999997</v>
+        <v>5.389999999999997</v>
       </c>
       <c r="IB2" t="n">
         <v>3.169999999999999</v>
       </c>
       <c r="IC2" t="n">
-        <v>9.139999999999992</v>
+        <v>9.169999999999993</v>
       </c>
       <c r="ID2" t="n">
         <v>6.509999999999997</v>
       </c>
       <c r="IE2" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="IF2" t="n">
         <v>1.13</v>
@@ -21694,13 +21699,13 @@
         <v>0.13</v>
       </c>
       <c r="IS2" t="n">
-        <v>4.75</v>
+        <v>4.74</v>
       </c>
       <c r="IT2" t="n">
         <v>3.239999999999999</v>
       </c>
       <c r="IU2" t="n">
-        <v>15.53999999999998</v>
+        <v>15.56999999999998</v>
       </c>
       <c r="IV2" t="n">
         <v>0.32</v>
@@ -21709,7 +21714,7 @@
         <v>1.850000000000001</v>
       </c>
       <c r="IX2" t="n">
-        <v>12.80999999999997</v>
+        <v>12.81999999999997</v>
       </c>
       <c r="IY2" t="n">
         <v>2.39</v>
@@ -21739,7 +21744,7 @@
         <v>0.17</v>
       </c>
       <c r="JH2" t="n">
-        <v>6.749999999999999</v>
+        <v>6.759999999999999</v>
       </c>
       <c r="JI2" t="n">
         <v>0.28</v>
@@ -21775,7 +21780,7 @@
         <v>0.43</v>
       </c>
       <c r="JT2" t="n">
-        <v>1.960000000000001</v>
+        <v>1.970000000000001</v>
       </c>
       <c r="JU2" t="n">
         <v>0.33</v>
@@ -21811,10 +21816,10 @@
         <v>4.689999999999999</v>
       </c>
       <c r="KF2" t="n">
-        <v>15.46999999999998</v>
+        <v>15.50999999999998</v>
       </c>
       <c r="KG2" t="n">
-        <v>9.69999999999999</v>
+        <v>9.70999999999999</v>
       </c>
       <c r="KH2" t="n">
         <v>0.17</v>
@@ -21829,7 +21834,7 @@
         <v>11.88</v>
       </c>
       <c r="KL2" t="n">
-        <v>2.99</v>
+        <v>3</v>
       </c>
       <c r="KM2" t="n">
         <v>0.09</v>
@@ -21853,7 +21858,7 @@
         <v>2.870000000000001</v>
       </c>
       <c r="KT2" t="n">
-        <v>5.709999999999994</v>
+        <v>5.719999999999994</v>
       </c>
       <c r="KU2" t="n">
         <v>0.72</v>
@@ -21880,7 +21885,7 @@
         <v>0.17</v>
       </c>
       <c r="LC2" t="n">
-        <v>3.25</v>
+        <v>3.26</v>
       </c>
       <c r="LD2" t="n">
         <v>2.96</v>
@@ -21889,16 +21894,16 @@
         <v>0.5800000000000001</v>
       </c>
       <c r="LF2" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="LG2" t="n">
         <v>3.35</v>
       </c>
       <c r="LH2" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="LI2" t="n">
-        <v>7.769999999999996</v>
+        <v>7.769999999999995</v>
       </c>
       <c r="LJ2" t="n">
         <v>1.08</v>
@@ -21910,7 +21915,7 @@
         <v>2.200000000000001</v>
       </c>
       <c r="LM2" t="n">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
       <c r="LN2" t="n">
         <v>0.6000000000000001</v>
@@ -21955,7 +21960,7 @@
         <v>1.29</v>
       </c>
       <c r="MB2" t="n">
-        <v>2.84</v>
+        <v>2.850000000000001</v>
       </c>
       <c r="MC2" t="n">
         <v>2.130000000000001</v>
@@ -21985,13 +21990,13 @@
         <v>3.829999999999999</v>
       </c>
       <c r="ML2" t="n">
-        <v>2.15</v>
+        <v>2.160000000000001</v>
       </c>
       <c r="MM2" t="n">
         <v>0.47</v>
       </c>
       <c r="MN2" t="n">
-        <v>3.869999999999999</v>
+        <v>3.879999999999999</v>
       </c>
       <c r="MO2" t="n">
         <v>2.42</v>
@@ -22000,13 +22005,13 @@
         <v>2.850000000000001</v>
       </c>
       <c r="MQ2" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="MR2" t="n">
         <v>3.09</v>
       </c>
       <c r="MS2" t="n">
-        <v>2.530000000000001</v>
+        <v>2.54</v>
       </c>
       <c r="MT2" t="n">
         <v>0.77</v>
@@ -22042,7 +22047,7 @@
         <v>2.850000000000001</v>
       </c>
       <c r="NE2" t="n">
-        <v>7.649999999999997</v>
+        <v>7.659999999999997</v>
       </c>
       <c r="NF2" t="n">
         <v>1.33</v>
@@ -22051,10 +22056,10 @@
         <v>4.409999999999998</v>
       </c>
       <c r="NH2" t="n">
-        <v>10.32999999999998</v>
+        <v>10.33999999999998</v>
       </c>
       <c r="NI2" t="n">
-        <v>7.089999999999997</v>
+        <v>7.129999999999997</v>
       </c>
       <c r="NJ2" t="n">
         <v>1.5</v>
@@ -22066,13 +22071,13 @@
         <v>0.57</v>
       </c>
       <c r="NM2" t="n">
-        <v>4.23</v>
+        <v>4.25</v>
       </c>
       <c r="NN2" t="n">
         <v>0.2</v>
       </c>
       <c r="NO2" t="n">
-        <v>2.39</v>
+        <v>2.4</v>
       </c>
       <c r="NP2" t="n">
         <v>4.619999999999999</v>
@@ -22087,7 +22092,7 @@
         <v>0.29</v>
       </c>
       <c r="NT2" t="n">
-        <v>13.26999999999998</v>
+        <v>13.27999999999998</v>
       </c>
       <c r="NU2" t="n">
         <v>0.36</v>
@@ -22126,10 +22131,10 @@
         <v>1.2</v>
       </c>
       <c r="OG2" t="n">
-        <v>1.440000000000001</v>
+        <v>1.450000000000001</v>
       </c>
       <c r="OH2" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="OI2" t="n">
         <v>0.14</v>
@@ -22141,7 +22146,7 @@
         <v>2.27</v>
       </c>
       <c r="OL2" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="OM2" t="n">
         <v>0.66</v>
@@ -22165,10 +22170,10 @@
         <v>2.09</v>
       </c>
       <c r="OT2" t="n">
-        <v>2.47</v>
+        <v>2.49</v>
       </c>
       <c r="OU2" t="n">
-        <v>3.07</v>
+        <v>3.08</v>
       </c>
       <c r="OV2" t="n">
         <v>0.6100000000000001</v>
@@ -22177,7 +22182,7 @@
         <v>6.299999999999999</v>
       </c>
       <c r="OX2" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="OY2" t="n">
         <v>4.470000000000001</v>
@@ -22201,7 +22206,7 @@
         <v>0.18</v>
       </c>
       <c r="PF2" t="n">
-        <v>7.589999999999998</v>
+        <v>7.609999999999998</v>
       </c>
       <c r="PG2" t="n">
         <v>4.13</v>
@@ -22213,7 +22218,7 @@
         <v>1.38</v>
       </c>
       <c r="PJ2" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="PK2" t="n">
         <v>0.25</v>
@@ -22234,7 +22239,7 @@
         <v>0.13</v>
       </c>
       <c r="PQ2" t="n">
-        <v>7.149999999999999</v>
+        <v>7.139999999999999</v>
       </c>
       <c r="PR2" t="n">
         <v>7.249999999999997</v>
@@ -22252,7 +22257,7 @@
         <v>0.13</v>
       </c>
       <c r="PW2" t="n">
-        <v>10.14999999999999</v>
+        <v>10.16999999999999</v>
       </c>
       <c r="PX2" t="n">
         <v>2.14</v>
@@ -22303,7 +22308,7 @@
         <v>0.29</v>
       </c>
       <c r="QN2" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="QO2" t="n">
         <v>1.37</v>
@@ -22321,7 +22326,7 @@
         <v>1.4</v>
       </c>
       <c r="QT2" t="n">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="QU2" t="n">
         <v>1.1</v>
@@ -22330,7 +22335,7 @@
         <v>5.429999999999999</v>
       </c>
       <c r="QW2" t="n">
-        <v>3.170000000000001</v>
+        <v>3.180000000000001</v>
       </c>
       <c r="QX2" t="n">
         <v>0.12</v>
@@ -22429,7 +22434,7 @@
         <v>0.4299999999999999</v>
       </c>
       <c r="SD2" t="n">
-        <v>3.639999999999999</v>
+        <v>3.649999999999999</v>
       </c>
       <c r="SE2" t="n">
         <v>0.08</v>
@@ -22477,7 +22482,7 @@
         <v>0.8</v>
       </c>
       <c r="ST2" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="SU2" t="n">
         <v>5.729999999999999</v>
@@ -22507,7 +22512,7 @@
         <v>2.340000000000001</v>
       </c>
       <c r="TD2" t="n">
-        <v>7.899999999999999</v>
+        <v>7.889999999999999</v>
       </c>
       <c r="TE2" t="n">
         <v>0.25</v>
@@ -22516,7 +22521,7 @@
         <v>0.13</v>
       </c>
       <c r="TG2" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="TH2" t="n">
         <v>0.26</v>
@@ -22531,7 +22536,7 @@
         <v>2.27</v>
       </c>
       <c r="TL2" t="n">
-        <v>5.06</v>
+        <v>5.08</v>
       </c>
       <c r="TM2" t="n">
         <v>0.13</v>
@@ -22546,7 +22551,7 @@
         <v>0.27</v>
       </c>
       <c r="TQ2" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="TR2" t="n">
         <v>3.519999999999999</v>
@@ -22561,13 +22566,13 @@
         <v>0.13</v>
       </c>
       <c r="TV2" t="n">
-        <v>2.310000000000001</v>
+        <v>2.320000000000001</v>
       </c>
       <c r="TW2" t="n">
         <v>0.51</v>
       </c>
       <c r="TX2" t="n">
-        <v>6.959999999999998</v>
+        <v>6.989999999999998</v>
       </c>
       <c r="TY2" t="n">
         <v>0.2</v>
@@ -22603,7 +22608,7 @@
         <v>1.02</v>
       </c>
       <c r="UJ2" t="n">
-        <v>9.050000000000004</v>
+        <v>9.070000000000004</v>
       </c>
       <c r="UK2" t="n">
         <v>1.42</v>
@@ -22618,7 +22623,7 @@
         <v>0.9</v>
       </c>
       <c r="UO2" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="UP2" t="n">
         <v>2.779999999999999</v>
@@ -22633,19 +22638,19 @@
         <v>0.51</v>
       </c>
       <c r="UT2" t="n">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="UU2" t="n">
         <v>0.24</v>
       </c>
       <c r="UV2" t="n">
-        <v>2.620000000000001</v>
+        <v>2.61</v>
       </c>
       <c r="UW2" t="n">
         <v>0.8</v>
       </c>
       <c r="UX2" t="n">
-        <v>4.549999999999998</v>
+        <v>4.559999999999998</v>
       </c>
       <c r="UY2" t="n">
         <v>0.2</v>
@@ -22654,7 +22659,7 @@
         <v>0.38</v>
       </c>
       <c r="VA2" t="n">
-        <v>2.850000000000001</v>
+        <v>2.860000000000001</v>
       </c>
       <c r="VB2" t="n">
         <v>3.029999999999998</v>
@@ -22711,7 +22716,7 @@
         <v>0.71</v>
       </c>
       <c r="VT2" t="n">
-        <v>10.28</v>
+        <v>10.29</v>
       </c>
       <c r="VU2" t="n">
         <v>0.33</v>
@@ -22744,7 +22749,7 @@
         <v>0.08</v>
       </c>
       <c r="WE2" t="n">
-        <v>7.909999999999972</v>
+        <v>7.919999999999972</v>
       </c>
       <c r="WF2" t="n">
         <v>1.96</v>
@@ -22753,13 +22758,13 @@
         <v>1.3</v>
       </c>
       <c r="WH2" t="n">
-        <v>6.409999999999997</v>
+        <v>6.419999999999996</v>
       </c>
       <c r="WI2" t="n">
         <v>1.08</v>
       </c>
       <c r="WJ2" t="n">
-        <v>4.21</v>
+        <v>4.220000000000001</v>
       </c>
       <c r="WK2" t="n">
         <v>1.4</v>
@@ -22792,7 +22797,7 @@
         <v>1.64</v>
       </c>
       <c r="WU2" t="n">
-        <v>1.380000000000001</v>
+        <v>1.390000000000001</v>
       </c>
       <c r="WV2" t="n">
         <v>0.16</v>
@@ -22939,7 +22944,7 @@
         <v>0.38</v>
       </c>
       <c r="YR2" t="n">
-        <v>1.760000000000001</v>
+        <v>1.770000000000001</v>
       </c>
       <c r="YS2" t="n">
         <v>0.1</v>
@@ -22999,19 +23004,19 @@
         <v>0.39</v>
       </c>
       <c r="ZL2" t="n">
-        <v>15.74</v>
+        <v>15.75</v>
       </c>
       <c r="ZM2" t="n">
         <v>0.78</v>
       </c>
       <c r="ZN2" t="n">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="ZO2" t="n">
         <v>0.12</v>
       </c>
       <c r="ZP2" t="n">
-        <v>2.13</v>
+        <v>2.12</v>
       </c>
       <c r="ZQ2" t="n">
         <v>2.19</v>
@@ -23026,7 +23031,7 @@
         <v>2.680000000000001</v>
       </c>
       <c r="ZU2" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="ZV2" t="n">
         <v>0.25</v>
@@ -23041,10 +23046,10 @@
         <v>0.3700000000000001</v>
       </c>
       <c r="ZZ2" t="n">
-        <v>4.53</v>
+        <v>4.550000000000001</v>
       </c>
       <c r="AAA2" t="n">
-        <v>6.750000000000001</v>
+        <v>2.87</v>
       </c>
       <c r="AAB2" t="n">
         <v>0.45</v>
@@ -23104,7 +23109,7 @@
         <v>0.31</v>
       </c>
       <c r="AAU2" t="n">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="AAV2" t="n">
         <v>0.09</v>
@@ -23188,13 +23193,13 @@
         <v>1.43</v>
       </c>
       <c r="ABW2" t="n">
-        <v>1.670000000000001</v>
+        <v>1.680000000000001</v>
       </c>
       <c r="ABX2" t="n">
         <v>4.03</v>
       </c>
       <c r="ABY2" t="n">
-        <v>2.09</v>
+        <v>2.1</v>
       </c>
       <c r="ABZ2" t="n">
         <v>5.91</v>
@@ -23239,7 +23244,7 @@
         <v>0.74</v>
       </c>
       <c r="ACN2" t="n">
-        <v>4.739999999999997</v>
+        <v>4.729999999999997</v>
       </c>
       <c r="ACO2" t="n">
         <v>1.07</v>
@@ -23266,7 +23271,7 @@
         <v>1.2</v>
       </c>
       <c r="ACW2" t="n">
-        <v>12.23</v>
+        <v>12.24</v>
       </c>
       <c r="ACX2" t="n">
         <v>0.54</v>
@@ -23284,7 +23289,7 @@
         <v>1.87</v>
       </c>
       <c r="ADC2" t="n">
-        <v>2.360000000000001</v>
+        <v>2.370000000000001</v>
       </c>
       <c r="ADD2" t="n">
         <v>0.5</v>
@@ -23332,7 +23337,7 @@
         <v>27.54</v>
       </c>
       <c r="ADS2" t="n">
-        <v>1.890000000000001</v>
+        <v>1.900000000000001</v>
       </c>
       <c r="ADT2" t="n">
         <v>0.12</v>
@@ -23353,7 +23358,7 @@
         <v>2.56</v>
       </c>
       <c r="ADZ2" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="AEA2" t="n">
         <v>0.35</v>
@@ -23467,7 +23472,7 @@
         <v>1.53</v>
       </c>
       <c r="AFL2" t="n">
-        <v>3.29</v>
+        <v>3.3</v>
       </c>
       <c r="AFM2" t="n">
         <v>0.18</v>
@@ -23476,7 +23481,7 @@
         <v>3.52</v>
       </c>
       <c r="AFO2" t="n">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
       <c r="AFP2" t="n">
         <v>0.72</v>
@@ -23488,7 +23493,7 @@
         <v>2.73</v>
       </c>
       <c r="AFS2" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="AFT2" t="n">
         <v>0.45</v>
@@ -23557,7 +23562,7 @@
         <v>0.38</v>
       </c>
       <c r="AGP2" t="n">
-        <v>5.96</v>
+        <v>5.97</v>
       </c>
       <c r="AGQ2" t="n">
         <v>0.08</v>
@@ -23569,7 +23574,7 @@
         <v>1.67</v>
       </c>
       <c r="AGT2" t="n">
-        <v>2.96</v>
+        <v>2.97</v>
       </c>
       <c r="AGU2" t="n">
         <v>0.08</v>
@@ -23593,7 +23598,7 @@
         <v>1.600000000000001</v>
       </c>
       <c r="AHB2" t="n">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="AHC2" t="n">
         <v>0.25</v>
@@ -23626,7 +23631,7 @@
         <v>0.12</v>
       </c>
       <c r="AHM2" t="n">
-        <v>3.720000000000001</v>
+        <v>3.73</v>
       </c>
       <c r="AHN2" t="n">
         <v>1.18</v>
@@ -23671,7 +23676,7 @@
         <v>0.21</v>
       </c>
       <c r="AIB2" t="n">
-        <v>2.08</v>
+        <v>2.09</v>
       </c>
       <c r="AIC2" t="n">
         <v>0.49</v>
@@ -23713,7 +23718,7 @@
         <v>0.46</v>
       </c>
       <c r="AIP2" t="n">
-        <v>4.369999999999999</v>
+        <v>4.389999999999999</v>
       </c>
       <c r="AIQ2" t="n">
         <v>0.47</v>
@@ -23740,7 +23745,7 @@
         <v>0.92</v>
       </c>
       <c r="AIY2" t="n">
-        <v>4.43</v>
+        <v>4.42</v>
       </c>
       <c r="AIZ2" t="n">
         <v>2.180000000000001</v>
@@ -23788,7 +23793,7 @@
         <v>0.67</v>
       </c>
       <c r="AJO2" t="n">
-        <v>9.249999999999998</v>
+        <v>9.26</v>
       </c>
       <c r="AJP2" t="n">
         <v>0.15</v>
@@ -23923,13 +23928,13 @@
         <v>0.51</v>
       </c>
       <c r="ALH2" t="n">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="ALI2" t="n">
         <v>2.72</v>
       </c>
       <c r="ALJ2" t="n">
-        <v>3.16</v>
+        <v>3.15</v>
       </c>
       <c r="ALK2" t="n">
         <v>1.44</v>
@@ -23959,7 +23964,7 @@
         <v>1.11</v>
       </c>
       <c r="ALT2" t="n">
-        <v>4.159999999999999</v>
+        <v>4.17</v>
       </c>
       <c r="ALU2" t="n">
         <v>0.24</v>
@@ -24013,7 +24018,7 @@
         <v>3.98</v>
       </c>
       <c r="AML2" t="n">
-        <v>2.61</v>
+        <v>2.62</v>
       </c>
       <c r="AMM2" t="n">
         <v>0.12</v>
@@ -24022,10 +24027,10 @@
         <v>1.950000000000001</v>
       </c>
       <c r="AMO2" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AMP2" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="AMQ2" t="n">
         <v>0.12</v>
@@ -24043,16 +24048,16 @@
         <v>0.12</v>
       </c>
       <c r="AMV2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AMW2" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="AMX2" t="n">
-        <v>4.100000000000001</v>
+        <v>4.090000000000001</v>
       </c>
       <c r="AMY2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="AMZ2" t="n">
         <v>0.4</v>
@@ -24118,7 +24123,7 @@
         <v>8.139999999999997</v>
       </c>
       <c r="ANU2" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="ANV2" t="n">
         <v>1.12</v>
@@ -24169,7 +24174,7 @@
         <v>0.27</v>
       </c>
       <c r="AOL2" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="AOM2" t="n">
         <v>0.42</v>
@@ -24178,7 +24183,7 @@
         <v>0.66</v>
       </c>
       <c r="AOO2" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="AOP2" t="n">
         <v>0.29</v>
@@ -24220,7 +24225,7 @@
         <v>3.84</v>
       </c>
       <c r="APC2" t="n">
-        <v>8.19</v>
+        <v>8.17</v>
       </c>
       <c r="APD2" t="n">
         <v>0.86</v>
@@ -24244,7 +24249,7 @@
         <v>3.03</v>
       </c>
       <c r="APK2" t="n">
-        <v>3.459999999999999</v>
+        <v>3.469999999999999</v>
       </c>
       <c r="APL2" t="n">
         <v>0.11</v>
@@ -24316,7 +24321,7 @@
         <v>1.05</v>
       </c>
       <c r="AQI2" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="AQJ2" t="n">
         <v>0.1</v>
@@ -24415,7 +24420,7 @@
         <v>0.49</v>
       </c>
       <c r="ARP2" t="n">
-        <v>0.52</v>
+        <v>0.54</v>
       </c>
       <c r="ARQ2" t="n">
         <v>2.33</v>
@@ -24424,7 +24429,7 @@
         <v>0.63</v>
       </c>
       <c r="ARS2" t="n">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="ART2" t="n">
         <v>0.44</v>
@@ -24445,7 +24450,7 @@
         <v>0.11</v>
       </c>
       <c r="ARZ2" t="n">
-        <v>4.359999999999999</v>
+        <v>4.369999999999999</v>
       </c>
       <c r="ASA2" t="n">
         <v>0.78</v>
@@ -24502,10 +24507,10 @@
         <v>0.12</v>
       </c>
       <c r="ASS2" t="n">
-        <v>2.820000000000001</v>
+        <v>2.840000000000001</v>
       </c>
       <c r="AST2" t="n">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="ASU2" t="n">
         <v>1.03</v>
@@ -24538,7 +24543,7 @@
         <v>1.17</v>
       </c>
       <c r="ATE2" t="n">
-        <v>3.52</v>
+        <v>3.53</v>
       </c>
       <c r="ATF2" t="n">
         <v>0.21</v>
@@ -24586,7 +24591,7 @@
         <v>0.19</v>
       </c>
       <c r="ATU2" t="n">
-        <v>4.350000000000001</v>
+        <v>4.36</v>
       </c>
       <c r="ATV2" t="n">
         <v>0.37</v>
@@ -24619,7 +24624,7 @@
         <v>0.09</v>
       </c>
       <c r="AUF2" t="n">
-        <v>3.519999999999999</v>
+        <v>3.539999999999999</v>
       </c>
       <c r="AUG2" t="n">
         <v>0.09</v>
@@ -24670,7 +24675,7 @@
         <v>0.9</v>
       </c>
       <c r="AUW2" t="n">
-        <v>8.809999999999999</v>
+        <v>8.81</v>
       </c>
       <c r="AUX2" t="n">
         <v>0.6500000000000001</v>
@@ -24775,7 +24780,7 @@
         <v>0.62</v>
       </c>
       <c r="AWF2" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="AWG2" t="n">
         <v>0.2</v>
@@ -24811,13 +24816,13 @@
         <v>0.55</v>
       </c>
       <c r="AWR2" t="n">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="AWS2" t="n">
         <v>1.19</v>
       </c>
       <c r="AWT2" t="n">
-        <v>9.700000000000001</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="AWU2" t="n">
         <v>0.8099999999999999</v>
@@ -24883,7 +24888,7 @@
         <v>0.11</v>
       </c>
       <c r="AXP2" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="AXQ2" t="n">
         <v>0.11</v>
@@ -24946,7 +24951,7 @@
         <v>0.13</v>
       </c>
       <c r="AYK2" t="n">
-        <v>0.8300000000000001</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AYL2" t="n">
         <v>0.5900000000000001</v>
@@ -24958,7 +24963,7 @@
         <v>0.11</v>
       </c>
       <c r="AYO2" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="AYP2" t="n">
         <v>3.19</v>
@@ -25111,7 +25116,7 @@
         <v>2.76</v>
       </c>
       <c r="BAN2" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="BAO2" t="n">
         <v>0.27</v>
@@ -25396,7 +25401,7 @@
         <v>0.51</v>
       </c>
       <c r="BEE2" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="BEF2" t="n">
         <v>0.87</v>
@@ -25465,7 +25470,7 @@
         <v>0.34</v>
       </c>
       <c r="BFB2" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="BFC2" t="n">
         <v>0.12</v>
@@ -25495,7 +25500,7 @@
         <v>0.48</v>
       </c>
       <c r="BFL2" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="BFM2" t="n">
         <v>0.12</v>
@@ -25672,7 +25677,7 @@
         <v>0.96</v>
       </c>
       <c r="BHS2" t="n">
-        <v>3.04</v>
+        <v>3.09</v>
       </c>
       <c r="BHT2" t="n">
         <v>0.34</v>
@@ -25708,7 +25713,7 @@
         <v>0.22</v>
       </c>
       <c r="BIE2" t="n">
-        <v>2.580000000000001</v>
+        <v>2.57</v>
       </c>
       <c r="BIF2" t="n">
         <v>0.39</v>
@@ -25735,7 +25740,7 @@
         <v>1.4</v>
       </c>
       <c r="BIN2" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="BIO2" t="n">
         <v>3</v>
@@ -25753,7 +25758,7 @@
         <v>0.12</v>
       </c>
       <c r="BIT2" t="n">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="BIU2" t="n">
         <v>0.92</v>
@@ -25882,7 +25887,7 @@
         <v>0.16</v>
       </c>
       <c r="BKK2" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="BKL2" t="n">
         <v>0.63</v>
@@ -25891,10 +25896,10 @@
         <v>1.88</v>
       </c>
       <c r="BKN2" t="n">
-        <v>0.9299999999999998</v>
+        <v>0.9399999999999998</v>
       </c>
       <c r="BKO2" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="BKP2" t="n">
         <v>0.47</v>
@@ -25957,7 +25962,7 @@
         <v>0.13</v>
       </c>
       <c r="BLJ2" t="n">
-        <v>0.8899999999999999</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="BLK2" t="n">
         <v>0.52</v>
@@ -26086,7 +26091,7 @@
         <v>0.28</v>
       </c>
       <c r="BNA2" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="BNB2" t="n">
         <v>0.08</v>
@@ -26143,7 +26148,7 @@
         <v>0.17</v>
       </c>
       <c r="BNT2" t="n">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="BNU2" t="n">
         <v>0.28</v>
@@ -26215,7 +26220,7 @@
         <v>0.39</v>
       </c>
       <c r="BOR2" t="n">
-        <v>6.829999999999998</v>
+        <v>6.839999999999999</v>
       </c>
       <c r="BOS2" t="n">
         <v>0.1</v>
@@ -26482,7 +26487,7 @@
         <v>0.12</v>
       </c>
       <c r="BSC2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="BSD2" t="n">
         <v>0.29</v>
@@ -26524,7 +26529,7 @@
         <v>0.16</v>
       </c>
       <c r="BSQ2" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="BSR2" t="n">
         <v>0.34</v>
@@ -26731,7 +26736,7 @@
         <v>0.11</v>
       </c>
       <c r="BVH2" t="n">
-        <v>2.31</v>
+        <v>2.3</v>
       </c>
       <c r="BVI2" t="n">
         <v>0.11</v>
@@ -26968,7 +26973,7 @@
         <v>0.17</v>
       </c>
       <c r="BYI2" t="n">
-        <v>0.9299999999999998</v>
+        <v>0.9399999999999998</v>
       </c>
       <c r="BYJ2" t="n">
         <v>0.17</v>
@@ -27121,7 +27126,7 @@
         <v>0.16</v>
       </c>
       <c r="CAH2" t="n">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
       <c r="CAI2" t="n">
         <v>0.16</v>
@@ -27193,7 +27198,7 @@
         <v>0.16</v>
       </c>
       <c r="CBF2" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="CBG2" t="n">
         <v>0.11</v>
@@ -27268,13 +27273,13 @@
         <v>0.09</v>
       </c>
       <c r="CCE2" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="CCF2" t="n">
         <v>0.21</v>
       </c>
       <c r="CCG2" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="CCH2" t="n">
         <v>0.52</v>
@@ -27727,7 +27732,7 @@
         <v>0.31</v>
       </c>
       <c r="CIB2" t="n">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="CIC2" t="n">
         <v>0.2</v>
@@ -27778,7 +27783,7 @@
         <v>0.39</v>
       </c>
       <c r="CIS2" t="n">
-        <v>2.24</v>
+        <v>2.23</v>
       </c>
       <c r="CIT2" t="n">
         <v>0.26</v>
@@ -27913,7 +27918,7 @@
         <v>0.12</v>
       </c>
       <c r="CKL2" t="n">
-        <v>20.73000000000001</v>
+        <v>20.74000000000001</v>
       </c>
       <c r="CKM2" t="n">
         <v>0.3</v>
@@ -27970,7 +27975,7 @@
         <v>0.66</v>
       </c>
       <c r="CLE2" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="CLF2" t="n">
         <v>0.12</v>
@@ -28066,7 +28071,7 @@
         <v>0.27</v>
       </c>
       <c r="CMK2" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="CML2" t="n">
         <v>0.1</v>
@@ -28084,7 +28089,7 @@
         <v>0.21</v>
       </c>
       <c r="CMQ2" t="n">
-        <v>7.750000000000001</v>
+        <v>7.760000000000001</v>
       </c>
       <c r="CMR2" t="n">
         <v>0.28</v>
@@ -28093,7 +28098,7 @@
         <v>0.14</v>
       </c>
       <c r="CMT2" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="CMU2" t="n">
         <v>0.39</v>
@@ -28129,7 +28134,7 @@
         <v>0.15</v>
       </c>
       <c r="CNF2" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="CNG2" t="n">
         <v>0.15</v>
@@ -28492,7 +28497,7 @@
         <v>0.28</v>
       </c>
       <c r="CRW2" t="n">
-        <v>0.3700000000000001</v>
+        <v>0.36</v>
       </c>
       <c r="CRX2" t="n">
         <v>0.12</v>
@@ -28795,7 +28800,7 @@
         <v>0.32</v>
       </c>
       <c r="CVT2" t="n">
-        <v>0.45</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="CVU2" t="n">
         <v>0.2</v>
@@ -28855,7 +28860,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="CWN2" t="n">
-        <v>1.99</v>
+        <v>2.01</v>
       </c>
       <c r="CWO2" t="n">
         <v>0.12</v>
@@ -28888,7 +28893,7 @@
         <v>0.12</v>
       </c>
       <c r="CWY2" t="n">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="CWZ2" t="n">
         <v>1.06</v>
@@ -28960,7 +28965,7 @@
         <v>0.1</v>
       </c>
       <c r="CXW2" t="n">
-        <v>0.58</v>
+        <v>0.59</v>
       </c>
       <c r="CXX2" t="n">
         <v>0.1</v>
@@ -28987,7 +28992,7 @@
         <v>0.37</v>
       </c>
       <c r="CYF2" t="n">
-        <v>3.8</v>
+        <v>3.83</v>
       </c>
       <c r="CYG2" t="n">
         <v>6.639999999999999</v>
@@ -29002,7 +29007,7 @@
         <v>0.28</v>
       </c>
       <c r="CYK2" t="n">
-        <v>3.75</v>
+        <v>3.779999999999999</v>
       </c>
       <c r="CYL2" t="n">
         <v>0.18</v>
@@ -29446,10 +29451,10 @@
         <v>0.33</v>
       </c>
       <c r="DEC2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="DED2" t="n">
-        <v>5.08</v>
+        <v>0.23</v>
       </c>
       <c r="DEE2" t="n">
         <v>0.13</v>
@@ -29623,7 +29628,7 @@
         <v>0.16</v>
       </c>
       <c r="DGJ2" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="DGK2" t="n">
         <v>0.15</v>
@@ -29998,7 +30003,7 @@
         <v>0.26</v>
       </c>
       <c r="DLE2" t="n">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="DLF2" t="n">
         <v>0.11</v>
@@ -30061,13 +30066,13 @@
         <v>0.09</v>
       </c>
       <c r="DLZ2" t="n">
-        <v>0.7999999999999999</v>
+        <v>0.7799999999999999</v>
       </c>
       <c r="DMA2" t="n">
         <v>0.12</v>
       </c>
       <c r="DMB2" t="n">
-        <v>0.28</v>
+        <v>0.3</v>
       </c>
       <c r="DMC2" t="n">
         <v>0.09</v>
@@ -30166,7 +30171,7 @@
         <v>0.14</v>
       </c>
       <c r="DNI2" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="DNJ2" t="n">
         <v>0.14</v>
@@ -30283,7 +30288,7 @@
         <v>0.11</v>
       </c>
       <c r="DOV2" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="DOW2" t="n">
         <v>0.13</v>
@@ -30589,7 +30594,7 @@
         <v>0.08</v>
       </c>
       <c r="DST2" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="DSU2" t="n">
         <v>0.3</v>
@@ -30667,7 +30672,7 @@
         <v>0.92</v>
       </c>
       <c r="DTT2" t="n">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="DTU2" t="n">
         <v>0.24</v>
@@ -31282,7 +31287,7 @@
         <v>0.1</v>
       </c>
       <c r="EBQ2" t="n">
-        <v>0.78</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="EBR2" t="n">
         <v>0.1</v>
@@ -31306,7 +31311,7 @@
         <v>0.14</v>
       </c>
       <c r="EBY2" t="n">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="EBZ2" t="n">
         <v>0.14</v>
@@ -31426,7 +31431,7 @@
         <v>0.14</v>
       </c>
       <c r="EDM2" t="n">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="EDN2" t="n">
         <v>0.14</v>
@@ -31597,7 +31602,7 @@
         <v>0.14</v>
       </c>
       <c r="EFR2" t="n">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="EFS2" t="n">
         <v>0.16</v>
@@ -31642,7 +31647,7 @@
         <v>0.1</v>
       </c>
       <c r="EGG2" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="EGH2" t="n">
         <v>0.1</v>
@@ -31711,7 +31716,7 @@
         <v>0.59</v>
       </c>
       <c r="EHD2" t="n">
-        <v>2.120000000000001</v>
+        <v>2.130000000000001</v>
       </c>
       <c r="EHE2" t="n">
         <v>0.28</v>
@@ -31756,28 +31761,28 @@
         <v>0.17</v>
       </c>
       <c r="EHS2" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="EHT2" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="EHU2" t="n">
         <v>0.25</v>
       </c>
-      <c r="EHU2" t="n">
+      <c r="EHV2" t="n">
         <v>0.13</v>
       </c>
-      <c r="EHV2" t="n">
+      <c r="EHW2" t="n">
         <v>0.5599999999999999</v>
       </c>
-      <c r="EHW2" t="n">
+      <c r="EHX2" t="n">
         <v>0.13</v>
       </c>
-      <c r="EHX2" t="n">
+      <c r="EHY2" t="n">
         <v>0.3</v>
       </c>
-      <c r="EHY2" t="n">
+      <c r="EHZ2" t="n">
         <v>0.24</v>
-      </c>
-      <c r="EHZ2" t="n">
-        <v>0.12</v>
       </c>
       <c r="EIA2" t="n">
         <v>0.12</v>
@@ -31786,52 +31791,52 @@
         <v>0.12</v>
       </c>
       <c r="EIC2" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="EID2" t="n">
         <v>0.53</v>
       </c>
-      <c r="EID2" t="n">
+      <c r="EIE2" t="n">
         <v>0.43</v>
       </c>
-      <c r="EIE2" t="n">
+      <c r="EIF2" t="n">
         <v>0.25</v>
       </c>
-      <c r="EIF2" t="n">
+      <c r="EIG2" t="n">
         <v>0.1</v>
       </c>
-      <c r="EIG2" t="n">
+      <c r="EIH2" t="n">
         <v>0.21</v>
-      </c>
-      <c r="EIH2" t="n">
-        <v>0.1</v>
       </c>
       <c r="EII2" t="n">
         <v>0.1</v>
       </c>
       <c r="EIJ2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="EIK2" t="n">
         <v>0.41</v>
       </c>
-      <c r="EIK2" t="n">
+      <c r="EIL2" t="n">
         <v>0.08</v>
       </c>
-      <c r="EIL2" t="n">
+      <c r="EIM2" t="n">
         <v>0.41</v>
       </c>
-      <c r="EIM2" t="n">
+      <c r="EIN2" t="n">
         <v>0.25</v>
       </c>
-      <c r="EIN2" t="n">
+      <c r="EIO2" t="n">
         <v>0.08</v>
       </c>
-      <c r="EIO2" t="n">
+      <c r="EIP2" t="n">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="EIP2" t="n">
-        <v>0.21</v>
       </c>
       <c r="EIQ2" t="n">
         <v>0.21</v>
       </c>
       <c r="EIR2" t="n">
-        <v>0.13</v>
+        <v>0.21</v>
       </c>
       <c r="EIS2" t="n">
         <v>0.13</v>
@@ -31840,49 +31845,49 @@
         <v>0.13</v>
       </c>
       <c r="EIU2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="EIV2" t="n">
         <v>0.51</v>
       </c>
-      <c r="EIV2" t="n">
+      <c r="EIW2" t="n">
         <v>0.12</v>
       </c>
-      <c r="EIW2" t="n">
+      <c r="EIX2" t="n">
         <v>0.15</v>
       </c>
-      <c r="EIX2" t="n">
+      <c r="EIY2" t="n">
         <v>0.29</v>
-      </c>
-      <c r="EIY2" t="n">
-        <v>0.15</v>
       </c>
       <c r="EIZ2" t="n">
         <v>0.15</v>
       </c>
       <c r="EJA2" t="n">
-        <v>0.46</v>
+        <v>0.15</v>
       </c>
       <c r="EJB2" t="n">
         <v>0.46</v>
       </c>
       <c r="EJC2" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="EJD2" t="n">
         <v>0.53</v>
       </c>
-      <c r="EJD2" t="n">
+      <c r="EJE2" t="n">
         <v>0.23</v>
       </c>
-      <c r="EJE2" t="n">
+      <c r="EJF2" t="n">
         <v>0.57</v>
       </c>
-      <c r="EJF2" t="n">
+      <c r="EJG2" t="n">
         <v>0.14</v>
       </c>
-      <c r="EJG2" t="n">
+      <c r="EJH2" t="n">
         <v>0.23</v>
       </c>
-      <c r="EJH2" t="n">
+      <c r="EJI2" t="n">
         <v>0.2</v>
-      </c>
-      <c r="EJI2" t="n">
-        <v>0.11</v>
       </c>
       <c r="EJJ2" t="n">
         <v>0.11</v>
@@ -31891,28 +31896,28 @@
         <v>0.11</v>
       </c>
       <c r="EJL2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="EJM2" t="n">
         <v>0.22</v>
       </c>
-      <c r="EJM2" t="n">
+      <c r="EJN2" t="n">
         <v>0.08</v>
       </c>
-      <c r="EJN2" t="n">
+      <c r="EJO2" t="n">
         <v>0.19</v>
-      </c>
-      <c r="EJO2" t="n">
-        <v>0.08</v>
       </c>
       <c r="EJP2" t="n">
         <v>0.08</v>
       </c>
       <c r="EJQ2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="EJR2" t="n">
         <v>0.19</v>
       </c>
-      <c r="EJR2" t="n">
+      <c r="EJS2" t="n">
         <v>0.08</v>
-      </c>
-      <c r="EJS2" t="n">
-        <v>0.12</v>
       </c>
       <c r="EJT2" t="n">
         <v>0.12</v>
@@ -31951,7 +31956,7 @@
         <v>0.12</v>
       </c>
       <c r="EKF2" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="EKG2" t="n">
         <v>0.09</v>
@@ -31966,19 +31971,19 @@
         <v>0.09</v>
       </c>
       <c r="EKK2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="EKL2" t="n">
         <v>0.52</v>
       </c>
-      <c r="EKL2" t="n">
+      <c r="EKM2" t="n">
         <v>0.43</v>
       </c>
-      <c r="EKM2" t="n">
+      <c r="EKN2" t="n">
         <v>0.29</v>
       </c>
-      <c r="EKN2" t="n">
+      <c r="EKO2" t="n">
         <v>0.31</v>
-      </c>
-      <c r="EKO2" t="n">
-        <v>0.14</v>
       </c>
       <c r="EKP2" t="n">
         <v>0.14</v>
@@ -31987,100 +31992,100 @@
         <v>0.14</v>
       </c>
       <c r="EKR2" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="EKS2" t="n">
         <v>0.89</v>
-      </c>
-      <c r="EKS2" t="n">
-        <v>0.15</v>
       </c>
       <c r="EKT2" t="n">
         <v>0.15</v>
       </c>
       <c r="EKU2" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="EKV2" t="n">
         <v>0.14</v>
       </c>
       <c r="EKW2" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="EKX2" t="n">
         <v>0.24</v>
       </c>
-      <c r="EKX2" t="n">
+      <c r="EKY2" t="n">
         <v>0.14</v>
       </c>
-      <c r="EKY2" t="n">
+      <c r="EKZ2" t="n">
         <v>0.17</v>
       </c>
-      <c r="EKZ2" t="n">
-        <v>0.96</v>
-      </c>
       <c r="ELA2" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="ELB2" t="n">
         <v>0.17</v>
       </c>
-      <c r="ELB2" t="n">
+      <c r="ELC2" t="n">
         <v>0.13</v>
       </c>
-      <c r="ELC2" t="n">
+      <c r="ELD2" t="n">
         <v>0.3</v>
-      </c>
-      <c r="ELD2" t="n">
-        <v>0.16</v>
       </c>
       <c r="ELE2" t="n">
         <v>0.16</v>
       </c>
       <c r="ELF2" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="ELG2" t="n">
         <v>0.29</v>
       </c>
-      <c r="ELG2" t="n">
+      <c r="ELH2" t="n">
         <v>0.1</v>
       </c>
-      <c r="ELH2" t="n">
+      <c r="ELI2" t="n">
         <v>0.29</v>
       </c>
-      <c r="ELI2" t="n">
+      <c r="ELJ2" t="n">
         <v>0.38</v>
       </c>
-      <c r="ELJ2" t="n">
+      <c r="ELK2" t="n">
         <v>0.87</v>
       </c>
-      <c r="ELK2" t="n">
+      <c r="ELL2" t="n">
         <v>0.13</v>
       </c>
-      <c r="ELL2" t="n">
+      <c r="ELM2" t="n">
         <v>0.74</v>
       </c>
-      <c r="ELM2" t="n">
+      <c r="ELN2" t="n">
         <v>0.1</v>
       </c>
-      <c r="ELN2" t="n">
+      <c r="ELO2" t="n">
         <v>4.34</v>
       </c>
-      <c r="ELO2" t="n">
+      <c r="ELP2" t="n">
         <v>0.1</v>
       </c>
-      <c r="ELP2" t="n">
+      <c r="ELQ2" t="n">
         <v>0.39</v>
       </c>
-      <c r="ELQ2" t="n">
+      <c r="ELR2" t="n">
         <v>0.1</v>
-      </c>
-      <c r="ELR2" t="n">
-        <v>0.19</v>
       </c>
       <c r="ELS2" t="n">
         <v>0.19</v>
       </c>
       <c r="ELT2" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="ELU2" t="n">
         <v>0.1</v>
       </c>
-      <c r="ELU2" t="n">
+      <c r="ELV2" t="n">
         <v>0.24</v>
       </c>
-      <c r="ELV2" t="n">
+      <c r="ELW2" t="n">
         <v>0.21</v>
-      </c>
-      <c r="ELW2" t="n">
-        <v>0.24</v>
       </c>
       <c r="ELX2" t="n">
         <v>0.24</v>
@@ -32089,112 +32094,112 @@
         <v>0.24</v>
       </c>
       <c r="ELZ2" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="EMA2" t="n">
         <v>0.29</v>
       </c>
-      <c r="EMA2" t="n">
+      <c r="EMB2" t="n">
         <v>0.14</v>
-      </c>
-      <c r="EMB2" t="n">
-        <v>0.15</v>
       </c>
       <c r="EMC2" t="n">
         <v>0.15</v>
       </c>
       <c r="EMD2" t="n">
-        <v>1.66</v>
+        <v>0.15</v>
       </c>
       <c r="EME2" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="EMF2" t="n">
         <v>0.15</v>
       </c>
-      <c r="EMF2" t="n">
+      <c r="EMG2" t="n">
         <v>0.7000000000000001</v>
       </c>
-      <c r="EMG2" t="n">
+      <c r="EMH2" t="n">
         <v>0.16</v>
-      </c>
-      <c r="EMH2" t="n">
-        <v>0.1</v>
       </c>
       <c r="EMI2" t="n">
         <v>0.1</v>
       </c>
       <c r="EMJ2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="EMK2" t="n">
         <v>0.25</v>
       </c>
-      <c r="EMK2" t="n">
+      <c r="EML2" t="n">
         <v>0.16</v>
       </c>
-      <c r="EML2" t="n">
+      <c r="EMM2" t="n">
         <v>0.63</v>
       </c>
-      <c r="EMM2" t="n">
+      <c r="EMN2" t="n">
         <v>0.29</v>
       </c>
-      <c r="EMN2" t="n">
+      <c r="EMO2" t="n">
         <v>0.12</v>
       </c>
-      <c r="EMO2" t="n">
+      <c r="EMP2" t="n">
         <v>0.28</v>
       </c>
-      <c r="EMP2" t="n">
+      <c r="EMQ2" t="n">
         <v>0.12</v>
       </c>
-      <c r="EMQ2" t="n">
+      <c r="EMR2" t="n">
         <v>0.15</v>
-      </c>
-      <c r="EMR2" t="n">
-        <v>0.11</v>
       </c>
       <c r="EMS2" t="n">
         <v>0.11</v>
       </c>
       <c r="EMT2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="EMU2" t="n">
         <v>0.26</v>
       </c>
-      <c r="EMU2" t="n">
+      <c r="EMV2" t="n">
         <v>0.18</v>
       </c>
-      <c r="EMV2" t="n">
-        <v>0.11</v>
-      </c>
       <c r="EMW2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="EMX2" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="EMY2" t="n">
         <v>0.16</v>
       </c>
-      <c r="EMY2" t="n">
+      <c r="EMZ2" t="n">
         <v>0.31</v>
-      </c>
-      <c r="EMZ2" t="n">
-        <v>0.16</v>
       </c>
       <c r="ENA2" t="n">
         <v>0.16</v>
       </c>
       <c r="ENB2" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="ENC2" t="n">
         <v>1.19</v>
       </c>
-      <c r="ENC2" t="n">
+      <c r="END2" t="n">
         <v>0.2</v>
       </c>
-      <c r="END2" t="n">
+      <c r="ENE2" t="n">
         <v>0.34</v>
       </c>
-      <c r="ENE2" t="n">
+      <c r="ENF2" t="n">
         <v>0.21</v>
       </c>
-      <c r="ENF2" t="n">
+      <c r="ENG2" t="n">
         <v>0.09</v>
       </c>
-      <c r="ENG2" t="n">
+      <c r="ENH2" t="n">
         <v>0.2</v>
       </c>
-      <c r="ENH2" t="n">
+      <c r="ENI2" t="n">
         <v>0.58</v>
-      </c>
-      <c r="ENI2" t="n">
-        <v>0.12</v>
       </c>
       <c r="ENJ2" t="n">
         <v>0.12</v>
@@ -32212,13 +32217,13 @@
         <v>0.12</v>
       </c>
       <c r="ENO2" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="ENP2" t="n">
         <v>0.71</v>
       </c>
-      <c r="ENP2" t="n">
+      <c r="ENQ2" t="n">
         <v>0.16</v>
-      </c>
-      <c r="ENQ2" t="n">
-        <v>0.1</v>
       </c>
       <c r="ENR2" t="n">
         <v>0.1</v>
@@ -32233,16 +32238,16 @@
         <v>0.1</v>
       </c>
       <c r="ENV2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="ENW2" t="n">
         <v>0.87</v>
       </c>
-      <c r="ENW2" t="n">
+      <c r="ENX2" t="n">
         <v>1.03</v>
       </c>
-      <c r="ENX2" t="n">
+      <c r="ENY2" t="n">
         <v>1.33</v>
-      </c>
-      <c r="ENY2" t="n">
-        <v>0.15</v>
       </c>
       <c r="ENZ2" t="n">
         <v>0.15</v>
@@ -32251,7 +32256,7 @@
         <v>0.15</v>
       </c>
       <c r="EOB2" t="n">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="EOC2" t="n">
         <v>0.18</v>
@@ -32260,22 +32265,22 @@
         <v>0.18</v>
       </c>
       <c r="EOE2" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="EOF2" t="n">
         <v>0.12</v>
       </c>
-      <c r="EOF2" t="n">
+      <c r="EOG2" t="n">
         <v>0.16</v>
       </c>
-      <c r="EOG2" t="n">
+      <c r="EOH2" t="n">
         <v>0.33</v>
       </c>
-      <c r="EOH2" t="n">
+      <c r="EOI2" t="n">
         <v>0.37</v>
       </c>
-      <c r="EOI2" t="n">
+      <c r="EOJ2" t="n">
         <v>0.44</v>
-      </c>
-      <c r="EOJ2" t="n">
-        <v>0.17</v>
       </c>
       <c r="EOK2" t="n">
         <v>0.17</v>
@@ -32284,7 +32289,7 @@
         <v>0.17</v>
       </c>
       <c r="EOM2" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="EON2" t="n">
         <v>0.15</v>
@@ -32305,46 +32310,46 @@
         <v>0.15</v>
       </c>
       <c r="EOT2" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="EOU2" t="n">
         <v>0.12</v>
       </c>
       <c r="EOV2" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="EOW2" t="n">
         <v>0.25</v>
       </c>
-      <c r="EOW2" t="n">
+      <c r="EOX2" t="n">
         <v>0.12</v>
       </c>
-      <c r="EOX2" t="n">
+      <c r="EOY2" t="n">
         <v>0.24</v>
-      </c>
-      <c r="EOY2" t="n">
-        <v>0.12</v>
       </c>
       <c r="EOZ2" t="n">
         <v>0.12</v>
       </c>
       <c r="EPA2" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="EPB2" t="n">
         <v>0.24</v>
-      </c>
-      <c r="EPB2" t="n">
-        <v>0.12</v>
       </c>
       <c r="EPC2" t="n">
         <v>0.12</v>
       </c>
       <c r="EPD2" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="EPE2" t="n">
         <v>0.36</v>
-      </c>
-      <c r="EPE2" t="n">
-        <v>0.12</v>
       </c>
       <c r="EPF2" t="n">
         <v>0.12</v>
       </c>
       <c r="EPG2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="EPH2" t="n">
         <v>0.13</v>
@@ -32356,91 +32361,91 @@
         <v>0.13</v>
       </c>
       <c r="EPK2" t="n">
-        <v>0.37</v>
+        <v>0.13</v>
       </c>
       <c r="EPL2" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="EPM2" t="n">
         <v>0.74</v>
       </c>
-      <c r="EPM2" t="n">
+      <c r="EPN2" t="n">
         <v>0.18</v>
-      </c>
-      <c r="EPN2" t="n">
-        <v>0.15</v>
       </c>
       <c r="EPO2" t="n">
         <v>0.15</v>
       </c>
       <c r="EPP2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="EPQ2" t="n">
         <v>0.77</v>
       </c>
-      <c r="EPQ2" t="n">
+      <c r="EPR2" t="n">
         <v>0.1</v>
       </c>
-      <c r="EPR2" t="n">
+      <c r="EPS2" t="n">
         <v>0.49</v>
-      </c>
-      <c r="EPS2" t="n">
-        <v>0.1</v>
       </c>
       <c r="EPT2" t="n">
         <v>0.1</v>
       </c>
       <c r="EPU2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="EPV2" t="n">
         <v>0.25</v>
-      </c>
-      <c r="EPV2" t="n">
-        <v>0.23</v>
       </c>
       <c r="EPW2" t="n">
         <v>0.23</v>
       </c>
       <c r="EPX2" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="EPY2" t="n">
         <v>0.47</v>
       </c>
-      <c r="EPY2" t="n">
+      <c r="EPZ2" t="n">
         <v>0.53</v>
       </c>
-      <c r="EPZ2" t="n">
+      <c r="EQA2" t="n">
         <v>0.41</v>
-      </c>
-      <c r="EQA2" t="n">
-        <v>0.09</v>
       </c>
       <c r="EQB2" t="n">
         <v>0.09</v>
       </c>
       <c r="EQC2" t="n">
-        <v>1.06</v>
+        <v>0.09</v>
       </c>
       <c r="EQD2" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="EQE2" t="n">
         <v>0.98</v>
       </c>
-      <c r="EQE2" t="n">
+      <c r="EQF2" t="n">
         <v>0.16</v>
-      </c>
-      <c r="EQF2" t="n">
-        <v>0.18</v>
       </c>
       <c r="EQG2" t="n">
         <v>0.18</v>
       </c>
       <c r="EQH2" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="EQI2" t="n">
         <v>0.32</v>
       </c>
-      <c r="EQI2" t="n">
+      <c r="EQJ2" t="n">
         <v>0.18</v>
       </c>
-      <c r="EQJ2" t="n">
+      <c r="EQK2" t="n">
         <v>0.73</v>
       </c>
-      <c r="EQK2" t="n">
+      <c r="EQL2" t="n">
         <v>0.13</v>
       </c>
-      <c r="EQL2" t="n">
+      <c r="EQM2" t="n">
         <v>0.19</v>
-      </c>
-      <c r="EQM2" t="n">
-        <v>0.11</v>
       </c>
       <c r="EQN2" t="n">
         <v>0.11</v>
@@ -32449,55 +32454,55 @@
         <v>0.11</v>
       </c>
       <c r="EQP2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="EQQ2" t="n">
         <v>0.14</v>
       </c>
-      <c r="EQQ2" t="n">
+      <c r="EQR2" t="n">
         <v>0.55</v>
       </c>
-      <c r="EQR2" t="n">
+      <c r="EQS2" t="n">
         <v>0.14</v>
       </c>
-      <c r="EQS2" t="n">
+      <c r="EQT2" t="n">
         <v>0.23</v>
       </c>
-      <c r="EQT2" t="n">
-        <v>0.45</v>
-      </c>
       <c r="EQU2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="EQV2" t="n">
         <v>0.9500000000000001</v>
       </c>
-      <c r="EQV2" t="n">
+      <c r="EQW2" t="n">
         <v>0.46</v>
       </c>
-      <c r="EQW2" t="n">
-        <v>0.61</v>
-      </c>
       <c r="EQX2" t="n">
-        <v>0.26</v>
+        <v>0.65</v>
       </c>
       <c r="EQY2" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="EQZ2" t="n">
         <v>0.11</v>
       </c>
-      <c r="EQZ2" t="n">
+      <c r="ERA2" t="n">
         <v>0.24</v>
-      </c>
-      <c r="ERA2" t="n">
-        <v>0.11</v>
       </c>
       <c r="ERB2" t="n">
         <v>0.11</v>
       </c>
       <c r="ERC2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="ERD2" t="n">
         <v>0.2</v>
       </c>
-      <c r="ERD2" t="n">
+      <c r="ERE2" t="n">
         <v>0.43</v>
       </c>
-      <c r="ERE2" t="n">
+      <c r="ERF2" t="n">
         <v>0.11</v>
-      </c>
-      <c r="ERF2" t="n">
-        <v>0.1</v>
       </c>
       <c r="ERG2" t="n">
         <v>0.1</v>
@@ -32506,7 +32511,7 @@
         <v>0.1</v>
       </c>
       <c r="ERI2" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="ERJ2" t="n">
         <v>0.09</v>
@@ -32524,43 +32529,43 @@
         <v>0.09</v>
       </c>
       <c r="ERO2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="ERP2" t="n">
         <v>0.17</v>
       </c>
-      <c r="ERP2" t="n">
+      <c r="ERQ2" t="n">
         <v>0.27</v>
       </c>
-      <c r="ERQ2" t="n">
+      <c r="ERR2" t="n">
         <v>0.09</v>
-      </c>
-      <c r="ERR2" t="n">
-        <v>0.11</v>
       </c>
       <c r="ERS2" t="n">
         <v>0.11</v>
       </c>
       <c r="ERT2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="ERU2" t="n">
         <v>0.55</v>
       </c>
-      <c r="ERU2" t="n">
+      <c r="ERV2" t="n">
         <v>0.18</v>
       </c>
-      <c r="ERV2" t="n">
+      <c r="ERW2" t="n">
         <v>0.36</v>
       </c>
-      <c r="ERW2" t="n">
+      <c r="ERX2" t="n">
         <v>0.68</v>
-      </c>
-      <c r="ERX2" t="n">
-        <v>0.17</v>
       </c>
       <c r="ERY2" t="n">
         <v>0.17</v>
       </c>
       <c r="ERZ2" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="ESA2" t="n">
         <v>0.38</v>
-      </c>
-      <c r="ESA2" t="n">
-        <v>0.13</v>
       </c>
       <c r="ESB2" t="n">
         <v>0.13</v>
@@ -32569,43 +32574,43 @@
         <v>0.13</v>
       </c>
       <c r="ESD2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="ESE2" t="n">
         <v>0.25</v>
       </c>
-      <c r="ESE2" t="n">
+      <c r="ESF2" t="n">
         <v>0.13</v>
       </c>
-      <c r="ESF2" t="n">
+      <c r="ESG2" t="n">
         <v>0.25</v>
       </c>
-      <c r="ESG2" t="n">
+      <c r="ESH2" t="n">
         <v>0.13</v>
-      </c>
-      <c r="ESH2" t="n">
-        <v>0.25</v>
       </c>
       <c r="ESI2" t="n">
         <v>0.25</v>
       </c>
       <c r="ESJ2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="ESK2" t="n">
         <v>0.13</v>
       </c>
-      <c r="ESK2" t="n">
+      <c r="ESL2" t="n">
         <v>0.5</v>
       </c>
-      <c r="ESL2" t="n">
+      <c r="ESM2" t="n">
         <v>0.17</v>
       </c>
-      <c r="ESM2" t="n">
+      <c r="ESN2" t="n">
         <v>0.63</v>
       </c>
-      <c r="ESN2" t="n">
+      <c r="ESO2" t="n">
         <v>0.5</v>
       </c>
-      <c r="ESO2" t="n">
+      <c r="ESP2" t="n">
         <v>0.11</v>
-      </c>
-      <c r="ESP2" t="n">
-        <v>0.1</v>
       </c>
       <c r="ESQ2" t="n">
         <v>0.1</v>
@@ -32617,31 +32622,31 @@
         <v>0.1</v>
       </c>
       <c r="EST2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="ESU2" t="n">
         <v>0.2</v>
       </c>
-      <c r="ESU2" t="n">
+      <c r="ESV2" t="n">
         <v>0.5</v>
       </c>
-      <c r="ESV2" t="n">
+      <c r="ESW2" t="n">
         <v>0.6</v>
       </c>
-      <c r="ESW2" t="n">
+      <c r="ESX2" t="n">
         <v>0.1</v>
       </c>
-      <c r="ESX2" t="n">
+      <c r="ESY2" t="n">
         <v>0.2</v>
       </c>
-      <c r="ESY2" t="n">
+      <c r="ESZ2" t="n">
         <v>0.13</v>
       </c>
-      <c r="ESZ2" t="n">
+      <c r="ETA2" t="n">
         <v>0.11</v>
       </c>
-      <c r="ETA2" t="n">
+      <c r="ETB2" t="n">
         <v>0.2</v>
-      </c>
-      <c r="ETB2" t="n">
-        <v>0.11</v>
       </c>
       <c r="ETC2" t="n">
         <v>0.11</v>
@@ -32659,10 +32664,10 @@
         <v>0.11</v>
       </c>
       <c r="ETH2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="ETI2" t="n">
         <v>0.45</v>
-      </c>
-      <c r="ETI2" t="n">
-        <v>0.15</v>
       </c>
       <c r="ETJ2" t="n">
         <v>0.15</v>
@@ -32674,19 +32679,19 @@
         <v>0.15</v>
       </c>
       <c r="ETM2" t="n">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="ETN2" t="n">
         <v>0.08</v>
       </c>
       <c r="ETO2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="ETP2" t="n">
         <v>0.17</v>
       </c>
-      <c r="ETP2" t="n">
+      <c r="ETQ2" t="n">
         <v>0.08</v>
-      </c>
-      <c r="ETQ2" t="n">
-        <v>0.2</v>
       </c>
       <c r="ETR2" t="n">
         <v>0.2</v>
@@ -32707,73 +32712,73 @@
         <v>0.2</v>
       </c>
       <c r="ETX2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="ETY2" t="n">
         <v>0.28</v>
       </c>
-      <c r="ETY2" t="n">
+      <c r="ETZ2" t="n">
         <v>0.42</v>
       </c>
-      <c r="ETZ2" t="n">
+      <c r="EUA2" t="n">
         <v>0.21</v>
-      </c>
-      <c r="EUA2" t="n">
-        <v>0.1</v>
       </c>
       <c r="EUB2" t="n">
         <v>0.1</v>
       </c>
       <c r="EUC2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="EUD2" t="n">
         <v>0.21</v>
       </c>
-      <c r="EUD2" t="n">
+      <c r="EUE2" t="n">
         <v>0.1</v>
       </c>
-      <c r="EUE2" t="n">
+      <c r="EUF2" t="n">
         <v>0.21</v>
       </c>
-      <c r="EUF2" t="n">
+      <c r="EUG2" t="n">
         <v>0.1</v>
-      </c>
-      <c r="EUG2" t="n">
-        <v>0.13</v>
       </c>
       <c r="EUH2" t="n">
         <v>0.13</v>
       </c>
       <c r="EUI2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="EUJ2" t="n">
         <v>0.16</v>
       </c>
-      <c r="EUJ2" t="n">
+      <c r="EUK2" t="n">
         <v>0.24</v>
       </c>
-      <c r="EUK2" t="n">
-        <v>0.4</v>
-      </c>
       <c r="EUL2" t="n">
-        <v>0.27</v>
+        <v>0.39</v>
       </c>
       <c r="EUM2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="EUN2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="EUO2" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="EUP2" t="n">
         <v>0.11</v>
       </c>
-      <c r="EUP2" t="n">
+      <c r="EUQ2" t="n">
         <v>0.57</v>
       </c>
-      <c r="EUQ2" t="n">
+      <c r="EUR2" t="n">
         <v>0.5700000000000001</v>
       </c>
-      <c r="EUR2" t="n">
+      <c r="EUS2" t="n">
         <v>0.11</v>
       </c>
-      <c r="EUS2" t="n">
+      <c r="EUT2" t="n">
         <v>0.38</v>
-      </c>
-      <c r="EUT2" t="n">
-        <v>0.11</v>
       </c>
       <c r="EUU2" t="n">
         <v>0.11</v>
@@ -32785,10 +32790,10 @@
         <v>0.11</v>
       </c>
       <c r="EUX2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="EUY2" t="n">
         <v>0.38</v>
-      </c>
-      <c r="EUY2" t="n">
-        <v>0.13</v>
       </c>
       <c r="EUZ2" t="n">
         <v>0.13</v>
@@ -32797,10 +32802,10 @@
         <v>0.13</v>
       </c>
       <c r="EVB2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="EVC2" t="n">
         <v>0.25</v>
-      </c>
-      <c r="EVC2" t="n">
-        <v>0.13</v>
       </c>
       <c r="EVD2" t="n">
         <v>0.13</v>
@@ -32812,7 +32817,7 @@
         <v>0.13</v>
       </c>
       <c r="EVG2" t="n">
-        <v>0.18</v>
+        <v>0.13</v>
       </c>
       <c r="EVH2" t="n">
         <v>0.18</v>
@@ -32821,25 +32826,25 @@
         <v>0.18</v>
       </c>
       <c r="EVJ2" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="EVK2" t="n">
         <v>0.17</v>
       </c>
       <c r="EVL2" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="EVM2" t="n">
         <v>0.34</v>
       </c>
-      <c r="EVM2" t="n">
+      <c r="EVN2" t="n">
         <v>0.16</v>
       </c>
-      <c r="EVN2" t="n">
-        <v>0.08</v>
-      </c>
       <c r="EVO2" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="EVP2" t="n">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="EVQ2" t="n">
         <v>0.13</v>
@@ -32848,55 +32853,55 @@
         <v>0.13</v>
       </c>
       <c r="EVS2" t="n">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="EVT2" t="n">
         <v>0.19</v>
       </c>
       <c r="EVU2" t="n">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="EVV2" t="n">
         <v>0.16</v>
       </c>
       <c r="EVW2" t="n">
-        <v>0.29</v>
+        <v>0.16</v>
       </c>
       <c r="EVX2" t="n">
         <v>0.29</v>
       </c>
       <c r="EVY2" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="EVZ2" t="n">
         <v>0.15</v>
       </c>
-      <c r="EVZ2" t="n">
+      <c r="EWA2" t="n">
         <v>0.25</v>
       </c>
-      <c r="EWA2" t="n">
+      <c r="EWB2" t="n">
         <v>0.6900000000000001</v>
       </c>
-      <c r="EWB2" t="n">
+      <c r="EWC2" t="n">
         <v>0.15</v>
-      </c>
-      <c r="EWC2" t="n">
-        <v>0.11</v>
       </c>
       <c r="EWD2" t="n">
         <v>0.11</v>
       </c>
       <c r="EWE2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="EWF2" t="n">
         <v>0.12</v>
       </c>
       <c r="EWG2" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="EWH2" t="n">
         <v>0.16</v>
       </c>
       <c r="EWI2" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="EWJ2" t="n">
         <v>0.18</v>
@@ -32905,7 +32910,7 @@
         <v>0.18</v>
       </c>
       <c r="EWL2" t="n">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="EWM2" t="n">
         <v>0.13</v>
@@ -32917,58 +32922,58 @@
         <v>0.13</v>
       </c>
       <c r="EWP2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="EWQ2" t="n">
         <v>0.49</v>
       </c>
-      <c r="EWQ2" t="n">
-        <v>0.28</v>
-      </c>
       <c r="EWR2" t="n">
-        <v>0.14</v>
+        <v>0.29</v>
       </c>
       <c r="EWS2" t="n">
         <v>0.15</v>
       </c>
       <c r="EWT2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="EWU2" t="n">
         <v>0.49</v>
       </c>
-      <c r="EWU2" t="n">
+      <c r="EWV2" t="n">
         <v>0.15</v>
       </c>
-      <c r="EWV2" t="n">
+      <c r="EWW2" t="n">
         <v>0.14</v>
       </c>
-      <c r="EWW2" t="n">
+      <c r="EWX2" t="n">
         <v>0.7</v>
       </c>
-      <c r="EWX2" t="n">
+      <c r="EWY2" t="n">
         <v>0.14</v>
       </c>
-      <c r="EWY2" t="n">
+      <c r="EWZ2" t="n">
         <v>0.55</v>
       </c>
-      <c r="EWZ2" t="n">
+      <c r="EXA2" t="n">
         <v>0.14</v>
       </c>
-      <c r="EXA2" t="n">
+      <c r="EXB2" t="n">
         <v>0.52</v>
-      </c>
-      <c r="EXB2" t="n">
-        <v>0.13</v>
       </c>
       <c r="EXC2" t="n">
         <v>0.13</v>
       </c>
       <c r="EXD2" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="EXE2" t="n">
         <v>0.11</v>
       </c>
       <c r="EXF2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="EXG2" t="n">
         <v>0.87</v>
-      </c>
-      <c r="EXG2" t="n">
-        <v>0.12</v>
       </c>
       <c r="EXH2" t="n">
         <v>0.12</v>
@@ -32977,25 +32982,25 @@
         <v>0.12</v>
       </c>
       <c r="EXJ2" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="EXK2" t="n">
         <v>0.26</v>
-      </c>
-      <c r="EXK2" t="n">
-        <v>0.17</v>
       </c>
       <c r="EXL2" t="n">
         <v>0.17</v>
       </c>
       <c r="EXM2" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="EXN2" t="n">
         <v>0.34</v>
-      </c>
-      <c r="EXN2" t="n">
-        <v>0.17</v>
       </c>
       <c r="EXO2" t="n">
         <v>0.17</v>
       </c>
       <c r="EXP2" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="EXQ2" t="n">
         <v>0.16</v>
@@ -33004,28 +33009,28 @@
         <v>0.16</v>
       </c>
       <c r="EXS2" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="EXT2" t="n">
         <v>0.24</v>
       </c>
-      <c r="EXT2" t="n">
+      <c r="EXU2" t="n">
         <v>0.12</v>
       </c>
-      <c r="EXU2" t="n">
+      <c r="EXV2" t="n">
         <v>0.11</v>
       </c>
-      <c r="EXV2" t="n">
+      <c r="EXW2" t="n">
         <v>0.34</v>
-      </c>
-      <c r="EXW2" t="n">
-        <v>0.11</v>
       </c>
       <c r="EXX2" t="n">
         <v>0.11</v>
       </c>
       <c r="EXY2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="EXZ2" t="n">
         <v>0.23</v>
-      </c>
-      <c r="EXZ2" t="n">
-        <v>0.11</v>
       </c>
       <c r="EYA2" t="n">
         <v>0.11</v>
@@ -33034,16 +33039,16 @@
         <v>0.11</v>
       </c>
       <c r="EYC2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="EYD2" t="n">
         <v>0.13</v>
-      </c>
-      <c r="EYD2" t="n">
-        <v>0.14</v>
       </c>
       <c r="EYE2" t="n">
         <v>0.14</v>
       </c>
       <c r="EYF2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="EYG2" t="n">
         <v>0.07000000000000001</v>
@@ -33070,58 +33075,58 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="EYO2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="EYP2" t="n">
         <v>0.17</v>
       </c>
-      <c r="EYP2" t="n">
+      <c r="EYQ2" t="n">
         <v>0.14</v>
       </c>
-      <c r="EYQ2" t="n">
+      <c r="EYR2" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="EYR2" t="n">
+      <c r="EYS2" t="n">
         <v>0.33</v>
       </c>
-      <c r="EYS2" t="n">
+      <c r="EYT2" t="n">
         <v>0.16</v>
-      </c>
-      <c r="EYT2" t="n">
-        <v>0.14</v>
       </c>
       <c r="EYU2" t="n">
         <v>0.14</v>
       </c>
       <c r="EYV2" t="n">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="EYW2" t="n">
         <v>0.2</v>
       </c>
       <c r="EYX2" t="n">
-        <v>0.31</v>
+        <v>0.2</v>
       </c>
       <c r="EYY2" t="n">
         <v>0.31</v>
       </c>
       <c r="EYZ2" t="n">
-        <v>0.06</v>
+        <v>0.31</v>
       </c>
       <c r="EZA2" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="EZB2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="EZC2" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="EZD2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="EZE2" t="n">
         <v>0.13</v>
       </c>
-      <c r="EZC2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="EZD2" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="EZE2" t="n">
-        <v>0.11</v>
-      </c>
       <c r="EZF2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="EZG2" t="n">
         <v>0.12</v>
@@ -33139,13 +33144,13 @@
         <v>0.12</v>
       </c>
       <c r="EZL2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="EZM2" t="n">
         <v>0.13</v>
       </c>
       <c r="EZN2" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="EZO2" t="n">
         <v>0.11</v>
@@ -33184,10 +33189,10 @@
         <v>0.11</v>
       </c>
       <c r="FAA2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="FAB2" t="n">
         <v>0.1</v>
-      </c>
-      <c r="FAB2" t="n">
-        <v>0.17</v>
       </c>
       <c r="FAC2" t="n">
         <v>0.17</v>
@@ -33199,10 +33204,10 @@
         <v>0.17</v>
       </c>
       <c r="FAF2" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="FAG2" t="n">
         <v>0.22</v>
-      </c>
-      <c r="FAG2" t="n">
-        <v>0.13</v>
       </c>
       <c r="FAH2" t="n">
         <v>0.13</v>
@@ -33214,19 +33219,19 @@
         <v>0.13</v>
       </c>
       <c r="FAK2" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="FAL2" t="n">
         <v>0.15</v>
       </c>
       <c r="FAM2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="FAN2" t="n">
         <v>0.3</v>
       </c>
-      <c r="FAN2" t="n">
+      <c r="FAO2" t="n">
         <v>0.15</v>
-      </c>
-      <c r="FAO2" t="n">
-        <v>0.17</v>
       </c>
       <c r="FAP2" t="n">
         <v>0.17</v>
@@ -33238,6 +33243,9 @@
         <v>0.17</v>
       </c>
       <c r="FAS2" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="FAT2" t="n">
         <v>0.17</v>
       </c>
     </row>
